--- a/SS24_Excel-Daten.xlsx
+++ b/SS24_Excel-Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lehub-my.sharepoint.com/personal/jaschill_transdev_de/Documents/Eigene/Vorlesung/SoSe24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{1C66B4E7-A8DB-451E-8777-DDAA164D2D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20C63473-9EC8-7D44-BB08-011A2470D86F}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{1C66B4E7-A8DB-451E-8777-DDAA164D2D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC7D4B9B-AB1E-8C46-A405-3137AFF111FE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{8C5EA0B1-DF45-4A34-AED0-B2E3FFAA0253}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{8C5EA0B1-DF45-4A34-AED0-B2E3FFAA0253}"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemeine Infos" sheetId="1" r:id="rId1"/>
@@ -2400,9 +2400,9 @@
       <c r="A3" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="56" t="e">
+      <c r="D3" s="56">
         <f>'Laufleistungsabhängige Kosten'!C18+Energiekosten!C23+Personalkosten!B12+'Trassen- und Stationsgebühren'!B29+Fahrzeugkauf!C11</f>
-        <v>#DIV/0!</v>
+        <v>2384829.7266666666</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
@@ -2424,9 +2424,9 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="81" t="e">
+      <c r="D7" s="81">
         <f>D3*D5</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2456,9 +2456,9 @@
       <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="C3" t="e">
+      <c r="C3">
         <f>'Verwaltung und Vertrieb'!D7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2476,9 +2476,9 @@
         <v>152</v>
       </c>
       <c r="B7" s="83"/>
-      <c r="C7" s="84" t="e">
+      <c r="C7" s="84">
         <f>C5*C3</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4569,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B891061-237B-463B-8B91-993C8E870194}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4623,13 +4623,16 @@
       <c r="M4" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="46"/>
+      <c r="N4" s="46">
+        <f>18+22/60</f>
+        <v>18.366666666666667</v>
+      </c>
       <c r="O4" s="43">
         <v>188</v>
       </c>
       <c r="P4" s="50">
         <f>O4*N4</f>
-        <v>0</v>
+        <v>3452.9333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -4639,26 +4642,32 @@
       <c r="M5" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="47"/>
+      <c r="N5" s="47">
+        <f>16+51/60</f>
+        <v>16.850000000000001</v>
+      </c>
       <c r="O5" s="43">
         <v>62</v>
       </c>
       <c r="P5" s="50">
         <f>O5*N5</f>
-        <v>0</v>
+        <v>1044.7</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="M6" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="N6" s="47"/>
+      <c r="N6" s="47">
+        <f>16+51/60</f>
+        <v>16.850000000000001</v>
+      </c>
       <c r="O6" s="43">
         <v>52</v>
       </c>
       <c r="P6" s="50">
         <f>O6*N6</f>
-        <v>0</v>
+        <v>876.2</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4674,13 +4683,16 @@
       <c r="M7" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="N7" s="48"/>
+      <c r="N7" s="48">
+        <f>15+51/60</f>
+        <v>15.85</v>
+      </c>
       <c r="O7" s="44">
         <v>63</v>
       </c>
       <c r="P7" s="51">
         <f>O7*N7</f>
-        <v>0</v>
+        <v>998.55</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4689,7 +4701,7 @@
       </c>
       <c r="P8" s="54">
         <f>P7+P6+P5+P4</f>
-        <v>0</v>
+        <v>6372.3833333333332</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -5347,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DFA2A3-81BC-4F4A-AFE0-7B5BEC4DFCCC}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5368,7 +5380,7 @@
       </c>
       <c r="B3" s="56">
         <f>Dienstplan!P8</f>
-        <v>0</v>
+        <v>6372.3833333333332</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5380,7 +5392,9 @@
       <c r="A6" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="57">
+        <v>1.2</v>
+      </c>
       <c r="C6" t="s">
         <v>105</v>
       </c>
@@ -5392,7 +5406,7 @@
       </c>
       <c r="B8" s="56">
         <f>B6*B3</f>
-        <v>0</v>
+        <v>7646.86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5414,7 +5428,7 @@
       </c>
       <c r="B12" s="69">
         <f>B8*B10</f>
-        <v>0</v>
+        <v>305874.39999999997</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -5429,7 +5443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C3D160-B1FE-4FD0-8875-64C43C614927}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5956,7 +5970,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5993,10 +6007,12 @@
       <c r="B4" s="74">
         <v>2500000</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="20">
+        <v>4</v>
+      </c>
       <c r="D4" s="75">
         <f>C4*B4</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6006,7 +6022,9 @@
       <c r="B5" s="74">
         <v>4250000</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
       <c r="D5" s="75">
         <f t="shared" ref="D5:D6" si="0">C5*B5</f>
         <v>0</v>
@@ -6019,7 +6037,9 @@
       <c r="B6" s="76">
         <v>2750000</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="62">
+        <v>0</v>
+      </c>
       <c r="D6" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6031,14 +6051,16 @@
       </c>
       <c r="D7" s="79">
         <f>D6+D5+D4</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20">
+        <v>15</v>
+      </c>
       <c r="D9" t="s">
         <v>147</v>
       </c>
@@ -6048,9 +6070,9 @@
       <c r="A11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="80" t="e">
+      <c r="C11" s="80">
         <f>D7/C9</f>
-        <v>#DIV/0!</v>
+        <v>666666.66666666663</v>
       </c>
     </row>
   </sheetData>

--- a/SS24_Excel-Daten.xlsx
+++ b/SS24_Excel-Daten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemeine Infos" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="199">
   <si>
     <t>Vorgegebene Kalkulationsparameter:</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>Zwischensumme</t>
-  </si>
-  <si>
-    <t>Gewinnzuschlag</t>
   </si>
   <si>
     <t>Gewinnfaktor</t>
@@ -1646,39 +1643,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1750,6 +1720,33 @@
     <xf numFmtId="4" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1813,6 +1810,99 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="850106" cy="575148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464502</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>616902</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10057099" y="0"/>
+          <a:ext cx="10058400" cy="5657850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="5657850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2119,7 +2209,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2189,28 +2279,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2218,47 +2308,47 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2277,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,12 +2421,12 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30">
         <v>10.957000000000001</v>
@@ -2369,7 +2459,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2388,12 +2478,12 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,27 +2504,27 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2465,17 +2555,17 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2630,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="180">
+      <c r="D7" s="171">
         <f>D3*D5</f>
         <v>3438079.041799712</v>
       </c>
@@ -2552,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,44 +2653,44 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="178">
+      <c r="C42" s="169">
         <f>'Verwaltung und Vertrieb'!D7</f>
         <v>3438079.041799712</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="179">
-        <f>C5*C3</f>
+      <c r="B46" s="38"/>
+      <c r="C46" s="170">
+        <f>C44*C42</f>
         <v>3781886.9459796837</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2623,64 +2713,64 @@
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R1" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="67" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>135</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>14</v>
@@ -2722,7 +2812,7 @@
         <v>14</v>
       </c>
       <c r="R2" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2781,7 +2871,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="51"/>
       <c r="C4" s="54">
@@ -2835,7 +2925,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="57">
@@ -2889,7 +2979,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="59">
@@ -2943,7 +3033,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="62">
@@ -3017,10 +3107,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="42">
         <v>0.22013888888888888</v>
@@ -3073,10 +3163,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="42">
         <v>0.22222222222222221</v>
@@ -3129,10 +3219,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="42">
         <v>0.22500000000000001</v>
@@ -3185,10 +3275,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="42">
         <v>0.22777777777777777</v>
@@ -3241,10 +3331,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="42">
         <v>0.2298611111111111</v>
@@ -3297,10 +3387,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="42">
         <v>0.23194444444444443</v>
@@ -3353,10 +3443,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="42">
         <v>0.23402777777777781</v>
@@ -3429,14 +3519,14 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="67" t="s">
         <v>134</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>135</v>
       </c>
       <c r="E17" s="67" t="s">
         <v>14</v>
@@ -3478,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="R17" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -3537,7 +3627,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="54">
@@ -3591,7 +3681,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="57">
@@ -3645,7 +3735,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="59">
@@ -3699,7 +3789,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="62">
@@ -3773,10 +3863,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24" s="42">
         <v>0.24513888888888888</v>
@@ -3829,10 +3919,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="42">
         <v>0.24722222222222223</v>
@@ -3885,10 +3975,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="42">
         <v>0.24930555555555556</v>
@@ -3941,10 +4031,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="42">
         <v>0.25138888888888888</v>
@@ -3997,10 +4087,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="42">
         <v>0.25416666666666665</v>
@@ -4053,10 +4143,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="42">
         <v>0.25694444444444448</v>
@@ -4109,10 +4199,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="42">
         <v>0.25833333333333336</v>
@@ -4215,7 +4305,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="75" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -4225,7 +4315,7 @@
       <c r="G1" s="74"/>
       <c r="H1" s="74"/>
       <c r="J1" s="76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
@@ -4245,7 +4335,7 @@
       <c r="Y1" s="77"/>
       <c r="Z1" s="77"/>
       <c r="AB1" s="77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC1" s="77"/>
       <c r="AD1" s="77"/>
@@ -4266,16 +4356,16 @@
         <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="72" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>23</v>
@@ -4290,16 +4380,16 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N2" s="72" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>23</v>
@@ -4314,16 +4404,16 @@
         <v>21</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W2" s="72" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>23</v>
@@ -4338,16 +4428,16 @@
         <v>21</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF2" s="72" t="s">
         <v>22</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AI2" s="6" t="s">
         <v>23</v>
@@ -4364,16 +4454,16 @@
         <v>0.19583333333333333</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="73">
         <v>0.21666666666666667</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="39">
         <f>3*13</f>
@@ -4389,13 +4479,13 @@
         <v>0.19583333333333333</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N3" s="73">
         <v>0.21666666666666667</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P3" s="39" t="s">
         <v>68</v>
@@ -4414,13 +4504,13 @@
         <v>0.23750000000000002</v>
       </c>
       <c r="V3" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W3" s="73">
         <v>0.25833333333333336</v>
       </c>
       <c r="X3" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y3" s="39" t="s">
         <v>68</v>
@@ -4439,13 +4529,13 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="AE3" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF3" s="73">
         <v>0.3</v>
       </c>
       <c r="AG3" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH3" s="39" t="s">
         <v>68</v>
@@ -4466,16 +4556,16 @@
         <v>0.22013888888888888</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="23">
         <v>0.23402777777777781</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H21" si="0">3*10.957</f>
@@ -4491,13 +4581,13 @@
         <v>0.22013888888888888</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N4" s="23">
         <v>0.23402777777777781</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>68</v>
@@ -4516,13 +4606,13 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W4" s="23">
         <v>0.27569444444444446</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>68</v>
@@ -4541,13 +4631,13 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF4" s="23">
         <v>0.31736111111111115</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>68</v>
@@ -4568,16 +4658,16 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="23">
         <v>0.25833333333333336</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
@@ -4593,13 +4683,13 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N5" s="23">
         <v>0.25833333333333336</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>68</v>
@@ -4618,13 +4708,13 @@
         <v>0.28611111111111115</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W5" s="23">
         <v>0.3</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="9" t="s">
         <v>68</v>
@@ -4643,13 +4733,13 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF5" s="23">
         <v>0.34166666666666662</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>68</v>
@@ -4670,16 +4760,16 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="23">
         <v>0.27569444444444446</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
@@ -4695,13 +4785,13 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N6" s="23">
         <v>0.27569444444444446</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>68</v>
@@ -4720,13 +4810,13 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W6" s="23">
         <v>0.31736111111111115</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y6" s="9" t="s">
         <v>68</v>
@@ -4745,13 +4835,13 @@
         <v>0.34513888888888888</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF6" s="23">
         <v>0.35902777777777778</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>68</v>
@@ -4772,16 +4862,16 @@
         <v>0.28611111111111115</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="23">
         <v>0.3</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
@@ -4797,13 +4887,13 @@
         <v>0.28611111111111115</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N7" s="23">
         <v>0.3</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>68</v>
@@ -4822,13 +4912,13 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W7" s="23">
         <v>0.34166666666666662</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y7" s="9" t="s">
         <v>68</v>
@@ -4847,13 +4937,13 @@
         <v>0.37013888888888885</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF7" s="23">
         <v>0.3833333333333333</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>68</v>
@@ -4874,16 +4964,16 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="23">
         <v>0.31736111111111115</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
@@ -4899,13 +4989,13 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N8" s="23">
         <v>0.31736111111111115</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>68</v>
@@ -4924,13 +5014,13 @@
         <v>0.34513888888888888</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W8" s="23">
         <v>0.35902777777777778</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y8" s="9" t="s">
         <v>68</v>
@@ -4949,13 +5039,13 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF8" s="23">
         <v>0.40069444444444446</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>68</v>
@@ -4976,16 +5066,16 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="23">
         <v>0.34166666666666662</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
@@ -5001,13 +5091,13 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N9" s="23">
         <v>0.34166666666666662</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>68</v>
@@ -5026,13 +5116,13 @@
         <v>0.37013888888888885</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W9" s="23">
         <v>0.3833333333333333</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="9" t="s">
         <v>68</v>
@@ -5051,13 +5141,13 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF9" s="23">
         <v>0.42499999999999999</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>68</v>
@@ -5078,16 +5168,16 @@
         <v>0.34513888888888888</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="23">
         <v>0.35902777777777778</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
@@ -5103,13 +5193,13 @@
         <v>0.34513888888888888</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N10" s="23">
         <v>0.35902777777777778</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>68</v>
@@ -5128,13 +5218,13 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W10" s="23">
         <v>0.40069444444444446</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>68</v>
@@ -5153,13 +5243,13 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" s="23">
         <v>0.44236111111111115</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>68</v>
@@ -5180,16 +5270,16 @@
         <v>0.37013888888888885</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="23">
         <v>0.3833333333333333</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
@@ -5205,13 +5295,13 @@
         <v>0.37013888888888885</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N11" s="23">
         <v>0.3833333333333333</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>68</v>
@@ -5230,13 +5320,13 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W11" s="23">
         <v>0.42499999999999999</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y11" s="9" t="s">
         <v>68</v>
@@ -5255,13 +5345,13 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF11" s="23">
         <v>0.46666666666666662</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>68</v>
@@ -5282,16 +5372,16 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="23">
         <v>0.40069444444444446</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
@@ -5307,13 +5397,13 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N12" s="23">
         <v>0.40069444444444446</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>68</v>
@@ -5332,13 +5422,13 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W12" s="23">
         <v>0.44236111111111115</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>68</v>
@@ -5357,13 +5447,13 @@
         <v>0.47013888888888888</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF12" s="23">
         <v>0.48402777777777778</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>68</v>
@@ -5384,16 +5474,16 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="23">
         <v>0.42499999999999999</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
@@ -5409,13 +5499,13 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N13" s="23">
         <v>0.42499999999999999</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>68</v>
@@ -5434,13 +5524,13 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W13" s="23">
         <v>0.46666666666666662</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>68</v>
@@ -5459,13 +5549,13 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF13" s="23">
         <v>0.5083333333333333</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>68</v>
@@ -5486,16 +5576,16 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="23">
         <v>0.44236111111111115</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
@@ -5511,13 +5601,13 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N14" s="23">
         <v>0.44236111111111115</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>68</v>
@@ -5536,13 +5626,13 @@
         <v>0.47013888888888888</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W14" s="23">
         <v>0.48402777777777778</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>68</v>
@@ -5561,13 +5651,13 @@
         <v>0.51180555555555551</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF14" s="23">
         <v>0.52569444444444446</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>68</v>
@@ -5588,16 +5678,16 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" s="23">
         <v>0.46666666666666662</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="0"/>
@@ -5613,13 +5703,13 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N15" s="23">
         <v>0.46666666666666662</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>68</v>
@@ -5638,13 +5728,13 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W15" s="23">
         <v>0.5083333333333333</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y15" s="9" t="s">
         <v>68</v>
@@ -5663,13 +5753,13 @@
         <v>0.53680555555555554</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF15" s="23">
         <v>0.54999999999999993</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>68</v>
@@ -5690,16 +5780,16 @@
         <v>0.47013888888888888</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="23">
         <v>0.48402777777777778</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
@@ -5715,13 +5805,13 @@
         <v>0.47013888888888888</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N16" s="23">
         <v>0.48402777777777778</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>68</v>
@@ -5740,13 +5830,13 @@
         <v>0.51180555555555551</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W16" s="23">
         <v>0.52569444444444446</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y16" s="9" t="s">
         <v>68</v>
@@ -5765,13 +5855,13 @@
         <v>0.55347222222222225</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF16" s="23">
         <v>0.56736111111111109</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>68</v>
@@ -5792,16 +5882,16 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="23">
         <v>0.5083333333333333</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
@@ -5817,13 +5907,13 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N17" s="23">
         <v>0.5083333333333333</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>68</v>
@@ -5842,13 +5932,13 @@
         <v>0.53680555555555554</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W17" s="23">
         <v>0.54999999999999993</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>68</v>
@@ -5867,13 +5957,13 @@
         <v>0.57847222222222217</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF17" s="23">
         <v>0.59166666666666667</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>68</v>
@@ -5894,16 +5984,16 @@
         <v>0.51180555555555551</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="23">
         <v>0.52569444444444446</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="0"/>
@@ -5919,13 +6009,13 @@
         <v>0.51180555555555551</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N18" s="23">
         <v>0.52569444444444446</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>68</v>
@@ -5944,13 +6034,13 @@
         <v>0.55347222222222225</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W18" s="23">
         <v>0.56736111111111109</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>68</v>
@@ -5969,13 +6059,13 @@
         <v>0.59513888888888888</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF18" s="23">
         <v>0.60902777777777783</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH18" s="9" t="s">
         <v>68</v>
@@ -5996,16 +6086,16 @@
         <v>0.53680555555555554</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="23">
         <v>0.54999999999999993</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
@@ -6021,13 +6111,13 @@
         <v>0.53680555555555554</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N19" s="23">
         <v>0.54999999999999993</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>68</v>
@@ -6046,13 +6136,13 @@
         <v>0.57847222222222217</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W19" s="23">
         <v>0.59166666666666667</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>68</v>
@@ -6071,13 +6161,13 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF19" s="23">
         <v>0.6333333333333333</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH19" s="9" t="s">
         <v>68</v>
@@ -6098,16 +6188,16 @@
         <v>0.55347222222222225</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="23">
         <v>0.56736111111111109</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="0"/>
@@ -6123,13 +6213,13 @@
         <v>0.55347222222222225</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N20" s="23">
         <v>0.56736111111111109</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>68</v>
@@ -6148,13 +6238,13 @@
         <v>0.59513888888888888</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W20" s="23">
         <v>0.60902777777777783</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>68</v>
@@ -6173,13 +6263,13 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF20" s="23">
         <v>0.65069444444444446</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH20" s="9" t="s">
         <v>68</v>
@@ -6200,16 +6290,16 @@
         <v>0.57847222222222217</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="23">
         <v>0.59166666666666667</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
@@ -6225,13 +6315,13 @@
         <v>0.57847222222222217</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N21" s="23">
         <v>0.59166666666666667</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>68</v>
@@ -6250,13 +6340,13 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W21" s="23">
         <v>0.6333333333333333</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>68</v>
@@ -6275,13 +6365,13 @@
         <v>0.66180555555555554</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF21" s="23">
         <v>0.67499999999999993</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH21" s="9" t="s">
         <v>68</v>
@@ -6302,13 +6392,13 @@
         <v>0.59513888888888888</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="23">
         <v>0.60902777777777783</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>68</v>
@@ -6327,13 +6417,13 @@
         <v>0.59513888888888888</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N22" s="23">
         <v>0.60902777777777783</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>68</v>
@@ -6352,13 +6442,13 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W22" s="23">
         <v>0.65069444444444446</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>68</v>
@@ -6377,13 +6467,13 @@
         <v>0.67847222222222225</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF22" s="23">
         <v>0.69236111111111109</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH22" s="9" t="s">
         <v>68</v>
@@ -6394,28 +6484,28 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="184">
+      <c r="C23" s="175">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D23" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="184">
+      <c r="D23" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="175">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F23" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="145" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="145">
+      <c r="F23" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="136">
         <v>0.4</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -6428,13 +6518,13 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N23" s="23">
         <v>0.6333333333333333</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>68</v>
@@ -6453,13 +6543,13 @@
         <v>0.66180555555555554</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W23" s="23">
         <v>0.67499999999999993</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>68</v>
@@ -6478,13 +6568,13 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="AE23" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF23" s="23">
         <v>0.71666666666666667</v>
       </c>
       <c r="AG23" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH23" s="9" t="s">
         <v>68</v>
@@ -6505,13 +6595,13 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" s="23">
         <v>0.6333333333333333</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>68</v>
@@ -6530,13 +6620,13 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N24" s="23">
         <v>0.65069444444444446</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>68</v>
@@ -6555,13 +6645,13 @@
         <v>0.67847222222222225</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W24" s="23">
         <v>0.69236111111111109</v>
       </c>
       <c r="X24" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>68</v>
@@ -6580,13 +6670,13 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="AE24" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF24" s="23">
         <v>0.73402777777777783</v>
       </c>
       <c r="AG24" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH24" s="9" t="s">
         <v>68</v>
@@ -6607,13 +6697,13 @@
         <v>0.63680555555555551</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" s="23">
         <v>0.65069444444444446</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>68</v>
@@ -6632,13 +6722,13 @@
         <v>0.66180555555555554</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N25" s="23">
         <v>0.67499999999999993</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>68</v>
@@ -6657,13 +6747,13 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W25" s="23">
         <v>0.71666666666666667</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>68</v>
@@ -6682,13 +6772,13 @@
         <v>0.74513888888888891</v>
       </c>
       <c r="AE25" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF25" s="23">
         <v>0.7583333333333333</v>
       </c>
       <c r="AG25" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH25" s="9" t="s">
         <v>68</v>
@@ -6709,13 +6799,13 @@
         <v>0.66180555555555554</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="23">
         <v>0.67499999999999993</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>68</v>
@@ -6734,13 +6824,13 @@
         <v>0.67847222222222225</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N26" s="23">
         <v>0.69236111111111109</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>68</v>
@@ -6759,13 +6849,13 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W26" s="23">
         <v>0.73402777777777783</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y26" s="9" t="s">
         <v>68</v>
@@ -6784,13 +6874,13 @@
         <v>0.76180555555555562</v>
       </c>
       <c r="AE26" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF26" s="23">
         <v>0.77569444444444446</v>
       </c>
       <c r="AG26" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH26" s="9" t="s">
         <v>68</v>
@@ -6811,13 +6901,13 @@
         <v>0.67847222222222225</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E27" s="23">
         <v>0.69236111111111109</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>68</v>
@@ -6836,13 +6926,13 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N27" s="23">
         <v>0.71666666666666667</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>68</v>
@@ -6861,13 +6951,13 @@
         <v>0.74513888888888891</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W27" s="23">
         <v>0.7583333333333333</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>68</v>
@@ -6886,13 +6976,13 @@
         <v>0.78680555555555554</v>
       </c>
       <c r="AE27" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF27" s="23">
         <v>0.79999999999999993</v>
       </c>
       <c r="AG27" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH27" s="9" t="s">
         <v>68</v>
@@ -6913,13 +7003,13 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" s="23">
         <v>0.71666666666666667</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>68</v>
@@ -6938,13 +7028,13 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N28" s="23">
         <v>0.73402777777777783</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P28" s="9" t="s">
         <v>68</v>
@@ -6963,13 +7053,13 @@
         <v>0.76180555555555562</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W28" s="23">
         <v>0.77569444444444446</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y28" s="9" t="s">
         <v>68</v>
@@ -6988,13 +7078,13 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="AE28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF28" s="23">
         <v>0.81736111111111109</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH28" s="9" t="s">
         <v>68</v>
@@ -7015,13 +7105,13 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="23">
         <v>0.73402777777777783</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>68</v>
@@ -7040,13 +7130,13 @@
         <v>0.74513888888888891</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N29" s="23">
         <v>0.7583333333333333</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>68</v>
@@ -7065,13 +7155,13 @@
         <v>0.78680555555555554</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W29" s="23">
         <v>0.79999999999999993</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y29" s="9" t="s">
         <v>68</v>
@@ -7090,13 +7180,13 @@
         <v>0.82847222222222217</v>
       </c>
       <c r="AE29" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF29" s="23">
         <v>0.84166666666666667</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH29" s="9" t="s">
         <v>68</v>
@@ -7117,13 +7207,13 @@
         <v>0.74513888888888891</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="23">
         <v>0.7583333333333333</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>68</v>
@@ -7142,13 +7232,13 @@
         <v>0.76180555555555562</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N30" s="23">
         <v>0.77569444444444446</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>68</v>
@@ -7167,13 +7257,13 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W30" s="23">
         <v>0.81736111111111109</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y30" s="9" t="s">
         <v>68</v>
@@ -7192,13 +7282,13 @@
         <v>0.84513888888888899</v>
       </c>
       <c r="AE30" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF30" s="23">
         <v>0.85902777777777783</v>
       </c>
       <c r="AG30" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH30" s="9" t="s">
         <v>68</v>
@@ -7219,13 +7309,13 @@
         <v>0.76180555555555562</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31" s="23">
         <v>0.77569444444444446</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>68</v>
@@ -7244,13 +7334,13 @@
         <v>0.78680555555555554</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N31" s="23">
         <v>0.79999999999999993</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P31" s="9" t="s">
         <v>68</v>
@@ -7269,13 +7359,13 @@
         <v>0.82847222222222217</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W31" s="23">
         <v>0.84166666666666667</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y31" s="9" t="s">
         <v>68</v>
@@ -7294,13 +7384,13 @@
         <v>0.87013888888888891</v>
       </c>
       <c r="AE31" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF31" s="23">
         <v>0.8833333333333333</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH31" s="9" t="s">
         <v>68</v>
@@ -7321,13 +7411,13 @@
         <v>0.78680555555555554</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E32" s="23">
         <v>0.79999999999999993</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>68</v>
@@ -7346,13 +7436,13 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N32" s="23">
         <v>0.81736111111111109</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P32" s="9" t="s">
         <v>68</v>
@@ -7371,13 +7461,13 @@
         <v>0.84513888888888899</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W32" s="23">
         <v>0.85902777777777783</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y32" s="9" t="s">
         <v>68</v>
@@ -7396,13 +7486,13 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="AE32" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF32" s="73">
         <v>0.90625</v>
       </c>
       <c r="AG32" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH32" s="39" t="s">
         <v>68</v>
@@ -7423,13 +7513,13 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="23">
         <v>0.81736111111111109</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>68</v>
@@ -7448,13 +7538,13 @@
         <v>0.82847222222222217</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N33" s="23">
         <v>0.84166666666666667</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P33" s="9" t="s">
         <v>68</v>
@@ -7473,13 +7563,13 @@
         <v>0.87013888888888891</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W33" s="23">
         <v>0.8833333333333333</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y33" s="9" t="s">
         <v>68</v>
@@ -7504,13 +7594,13 @@
         <v>0.82847222222222217</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E34" s="23">
         <v>0.84166666666666667</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>68</v>
@@ -7529,13 +7619,13 @@
         <v>0.84375</v>
       </c>
       <c r="M34" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N34" s="73">
         <v>0.86458333333333337</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P34" s="39" t="s">
         <v>68</v>
@@ -7554,13 +7644,13 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="V34" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W34" s="73">
         <v>0.90625</v>
       </c>
       <c r="X34" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y34" s="39" t="s">
         <v>68</v>
@@ -7571,28 +7661,28 @@
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="145" t="s">
+      <c r="A35" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="184">
+      <c r="C35" s="175">
         <v>0.86111111111111116</v>
       </c>
-      <c r="D35" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="184">
+      <c r="D35" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="175">
         <v>0.86805555555555547</v>
       </c>
-      <c r="F35" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="145" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="145">
+      <c r="F35" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="136">
         <v>0.4</v>
       </c>
       <c r="Q35" s="15">
@@ -7615,16 +7705,16 @@
         <v>0.87013888888888891</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="73">
         <v>0.89097222222222217</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H36" s="39">
         <f>3*13</f>
@@ -7686,54 +7776,54 @@
   <sheetData>
     <row r="1" spans="2:45" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:45" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
+      <c r="B2" s="176" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
       <c r="J2" s="84"/>
       <c r="K2" s="84"/>
-      <c r="L2" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="109"/>
+      <c r="L2" s="176" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="178"/>
       <c r="T2" s="84"/>
       <c r="U2" s="84"/>
-      <c r="V2" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="109"/>
+      <c r="V2" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="178"/>
       <c r="AD2" s="84"/>
       <c r="AE2" s="84"/>
-      <c r="AF2" s="107" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="109"/>
-      <c r="AP2" s="132" t="s">
-        <v>190</v>
+      <c r="AF2" s="176" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="177"/>
+      <c r="AJ2" s="177"/>
+      <c r="AK2" s="177"/>
+      <c r="AL2" s="177"/>
+      <c r="AM2" s="178"/>
+      <c r="AP2" s="123" t="s">
+        <v>189</v>
       </c>
       <c r="AQ2" s="11"/>
       <c r="AR2"/>
@@ -7742,61 +7832,61 @@
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="85"/>
       <c r="C3" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
       <c r="H3" s="87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" s="88"/>
       <c r="J3" s="84"/>
       <c r="K3" s="84"/>
       <c r="L3" s="85"/>
-      <c r="M3" s="125" t="s">
-        <v>167</v>
-      </c>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="126" t="s">
-        <v>176</v>
+      <c r="M3" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117" t="s">
+        <v>175</v>
       </c>
       <c r="S3" s="88"/>
       <c r="T3" s="84"/>
       <c r="U3" s="84"/>
       <c r="V3" s="85"/>
-      <c r="W3" s="127" t="s">
+      <c r="W3" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="128" t="s">
-        <v>176</v>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="119" t="s">
+        <v>175</v>
       </c>
       <c r="AC3" s="88"/>
       <c r="AD3" s="84"/>
       <c r="AE3" s="84"/>
       <c r="AF3" s="85"/>
-      <c r="AG3" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="131" t="s">
-        <v>176</v>
+      <c r="AG3" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="122" t="s">
+        <v>175</v>
       </c>
       <c r="AM3" s="88"/>
       <c r="AP3" s="12"/>
       <c r="AQ3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AR3" s="21" t="s">
         <v>15</v>
@@ -7828,7 +7918,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J4" s="81"/>
       <c r="L4" s="89" t="s">
@@ -7853,7 +7943,7 @@
         <v>50</v>
       </c>
       <c r="S4" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V4" s="89" t="s">
         <v>13</v>
@@ -7877,7 +7967,7 @@
         <v>50</v>
       </c>
       <c r="AC4" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF4" s="89" t="s">
         <v>13</v>
@@ -7901,967 +7991,967 @@
         <v>50</v>
       </c>
       <c r="AM4" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AP4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AQ4" s="133">
+      <c r="AQ4" s="124">
         <f>(D23+D47+D72)*24</f>
         <v>20.85</v>
       </c>
-      <c r="AR4" s="134">
+      <c r="AR4" s="125">
         <v>188</v>
       </c>
-      <c r="AS4" s="135">
+      <c r="AS4" s="126">
         <f>AR4*AQ4</f>
         <v>3919.8</v>
       </c>
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B5" s="152"/>
-      <c r="C5" s="153" t="s">
+      <c r="B5" s="143"/>
+      <c r="C5" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="154">
+      <c r="D5" s="145">
         <v>0.16458333333333333</v>
       </c>
-      <c r="E5" s="154">
+      <c r="E5" s="145">
         <v>0.19583333333333333</v>
       </c>
-      <c r="F5" s="153" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="153"/>
-      <c r="H5" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="156"/>
+      <c r="F5" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="144"/>
+      <c r="H5" s="146" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="147"/>
       <c r="J5" s="33"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153" t="s">
+      <c r="L5" s="143"/>
+      <c r="M5" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="154">
+      <c r="N5" s="145">
         <v>0.17500000000000002</v>
       </c>
-      <c r="O5" s="154">
+      <c r="O5" s="145">
         <v>0.19583333333333333</v>
       </c>
-      <c r="P5" s="153" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="155" t="s">
+      <c r="P5" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="156"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="153" t="s">
+      <c r="S5" s="147"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="154">
+      <c r="X5" s="145">
         <v>0.21666666666666667</v>
       </c>
-      <c r="Y5" s="154">
+      <c r="Y5" s="145">
         <v>0.23750000000000002</v>
       </c>
-      <c r="Z5" s="153" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="155" t="s">
+      <c r="Z5" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="AC5" s="156"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="153" t="s">
+      <c r="AC5" s="147"/>
+      <c r="AF5" s="143"/>
+      <c r="AG5" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="AH5" s="154">
+      <c r="AH5" s="145">
         <v>0.25833333333333336</v>
       </c>
-      <c r="AI5" s="154">
+      <c r="AI5" s="145">
         <v>0.27916666666666667</v>
       </c>
-      <c r="AJ5" s="153" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK5" s="153"/>
-      <c r="AL5" s="155" t="s">
+      <c r="AJ5" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK5" s="144"/>
+      <c r="AL5" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="156"/>
+      <c r="AM5" s="147"/>
       <c r="AP5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AQ5" s="133">
+      <c r="AQ5" s="124">
         <f>(N22+N43+N69)*24</f>
         <v>17.083333333333332</v>
       </c>
-      <c r="AR5" s="134">
+      <c r="AR5" s="125">
         <v>62</v>
       </c>
-      <c r="AS5" s="135">
+      <c r="AS5" s="126">
         <f>AR5*AQ5</f>
         <v>1059.1666666666665</v>
       </c>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="131" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="141">
+        <v>171</v>
+      </c>
+      <c r="D6" s="132">
         <v>0.19583333333333333</v>
       </c>
-      <c r="E6" s="141">
+      <c r="E6" s="132">
         <v>0.21666666666666667</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="142" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="143"/>
+        <v>140</v>
+      </c>
+      <c r="H6" s="133" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="134"/>
       <c r="J6" s="33"/>
-      <c r="L6" s="140" t="s">
+      <c r="L6" s="131" t="s">
         <v>67</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="N6" s="141">
+        <v>171</v>
+      </c>
+      <c r="N6" s="132">
         <v>0.19583333333333333</v>
       </c>
-      <c r="O6" s="141">
+      <c r="O6" s="132">
         <v>0.21666666666666667</v>
       </c>
       <c r="P6" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="R6" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="143"/>
-      <c r="V6" s="140" t="s">
+      <c r="S6" s="134"/>
+      <c r="V6" s="131" t="s">
         <v>67</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="X6" s="141">
+        <v>171</v>
+      </c>
+      <c r="X6" s="132">
         <v>0.23750000000000002</v>
       </c>
-      <c r="Y6" s="141">
+      <c r="Y6" s="132">
         <v>0.25833333333333336</v>
       </c>
       <c r="Z6" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA6" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB6" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB6" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="AC6" s="143"/>
-      <c r="AF6" s="140" t="s">
+      <c r="AC6" s="134"/>
+      <c r="AF6" s="131" t="s">
         <v>67</v>
       </c>
       <c r="AG6" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH6" s="141">
+        <v>171</v>
+      </c>
+      <c r="AH6" s="132">
         <v>0.27916666666666667</v>
       </c>
-      <c r="AI6" s="141">
+      <c r="AI6" s="132">
         <v>0.3</v>
       </c>
       <c r="AJ6" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK6" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL6" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL6" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="AM6" s="143"/>
+      <c r="AM6" s="134"/>
       <c r="AP6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AQ6" s="133">
+      <c r="AQ6" s="124">
         <f>(X22+X43+X69)*24</f>
         <v>17.083333333333336</v>
       </c>
-      <c r="AR6" s="134">
+      <c r="AR6" s="125">
         <v>52</v>
       </c>
-      <c r="AS6" s="135">
+      <c r="AS6" s="126">
         <f>AR6*AQ6</f>
         <v>888.33333333333348</v>
       </c>
     </row>
     <row r="7" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="165">
+      <c r="B7" s="156">
         <v>37951</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="166">
+      <c r="D7" s="157">
         <v>0.22013888888888888</v>
       </c>
-      <c r="E7" s="166">
+      <c r="E7" s="157">
         <v>0.23402777777777781</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="133"/>
+        <v>146</v>
+      </c>
+      <c r="H7" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="124"/>
       <c r="J7" s="33"/>
-      <c r="L7" s="165">
+      <c r="L7" s="156">
         <v>37951</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="166">
+      <c r="N7" s="157">
         <v>0.22013888888888888</v>
       </c>
-      <c r="O7" s="166">
+      <c r="O7" s="157">
         <v>0.23402777777777781</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R7" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R7" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="133"/>
-      <c r="V7" s="165">
+      <c r="S7" s="124"/>
+      <c r="V7" s="156">
         <v>37953</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X7" s="166">
+      <c r="X7" s="157">
         <v>0.26180555555555557</v>
       </c>
-      <c r="Y7" s="166">
+      <c r="Y7" s="157">
         <v>0.27569444444444446</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB7" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB7" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC7" s="133"/>
-      <c r="AF7" s="165">
+      <c r="AC7" s="124"/>
+      <c r="AF7" s="156">
         <v>37955</v>
       </c>
       <c r="AG7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH7" s="166">
+      <c r="AH7" s="157">
         <v>0.30347222222222198</v>
       </c>
-      <c r="AI7" s="166">
+      <c r="AI7" s="157">
         <v>0.31736111111111098</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL7" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL7" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM7" s="133"/>
+      <c r="AM7" s="124"/>
       <c r="AP7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AQ7" s="136">
+      <c r="AQ7" s="127">
         <f>(AH20+AH43+AH69)*24</f>
         <v>16.166666666666668</v>
       </c>
-      <c r="AR7" s="137">
+      <c r="AR7" s="128">
         <v>63</v>
       </c>
-      <c r="AS7" s="138">
+      <c r="AS7" s="129">
         <f>AR7*AQ7</f>
         <v>1018.5000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="165">
+      <c r="B8" s="156">
         <v>37950</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="166">
+      <c r="D8" s="157">
         <v>0.24513888888888888</v>
       </c>
-      <c r="E8" s="166">
+      <c r="E8" s="157">
         <v>0.25833333333333336</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="133"/>
+        <v>140</v>
+      </c>
+      <c r="H8" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="124"/>
       <c r="J8" s="33"/>
-      <c r="L8" s="165">
+      <c r="L8" s="156">
         <v>37950</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="166">
+      <c r="N8" s="157">
         <v>0.24513888888888888</v>
       </c>
-      <c r="O8" s="166">
+      <c r="O8" s="157">
         <v>0.25833333333333336</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R8" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R8" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="133"/>
-      <c r="V8" s="165">
+      <c r="S8" s="124"/>
+      <c r="V8" s="156">
         <v>37954</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X8" s="166">
+      <c r="X8" s="157">
         <v>0.28611111111111115</v>
       </c>
-      <c r="Y8" s="166">
+      <c r="Y8" s="157">
         <v>0.3</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB8" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC8" s="133"/>
-      <c r="AF8" s="165">
+      <c r="AC8" s="124"/>
+      <c r="AF8" s="156">
         <v>37956</v>
       </c>
       <c r="AG8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH8" s="166">
+      <c r="AH8" s="157">
         <v>0.328472222222222</v>
       </c>
-      <c r="AI8" s="166">
+      <c r="AI8" s="157">
         <v>0.34166666666666701</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL8" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL8" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM8" s="133"/>
+      <c r="AM8" s="124"/>
       <c r="AP8"/>
       <c r="AQ8"/>
       <c r="AR8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AS8" s="139">
+      <c r="AS8" s="130">
         <f>AS7+AS6+AS5+AS4</f>
         <v>6885.8</v>
       </c>
     </row>
     <row r="9" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B9" s="165">
+      <c r="B9" s="156">
         <v>37953</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="166">
+      <c r="D9" s="157">
         <v>0.26180555555555557</v>
       </c>
-      <c r="E9" s="166">
+      <c r="E9" s="157">
         <v>0.27569444444444446</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9" s="133"/>
+        <v>146</v>
+      </c>
+      <c r="H9" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="124"/>
       <c r="J9" s="82"/>
-      <c r="L9" s="165">
+      <c r="L9" s="156">
         <v>37953</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="166">
+      <c r="N9" s="157">
         <v>0.26180555555555557</v>
       </c>
-      <c r="O9" s="166">
+      <c r="O9" s="157">
         <v>0.27569444444444446</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R9" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R9" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="133"/>
-      <c r="V9" s="165">
+      <c r="S9" s="124"/>
+      <c r="V9" s="156">
         <v>37955</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X9" s="166">
+      <c r="X9" s="157">
         <v>0.30347222222222198</v>
       </c>
-      <c r="Y9" s="166">
+      <c r="Y9" s="157">
         <v>0.31736111111111098</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB9" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB9" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC9" s="133"/>
-      <c r="AF9" s="165">
+      <c r="AC9" s="124"/>
+      <c r="AF9" s="156">
         <v>37957</v>
       </c>
       <c r="AG9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH9" s="166">
+      <c r="AH9" s="157">
         <v>0.34513888888888899</v>
       </c>
-      <c r="AI9" s="166">
+      <c r="AI9" s="157">
         <v>0.359027777777778</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL9" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL9" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM9" s="133"/>
+      <c r="AM9" s="124"/>
     </row>
     <row r="10" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B10" s="165">
+      <c r="B10" s="156">
         <v>37954</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="166">
+      <c r="D10" s="157">
         <v>0.28611111111111115</v>
       </c>
-      <c r="E10" s="166">
+      <c r="E10" s="157">
         <v>0.3</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10" s="133"/>
+        <v>140</v>
+      </c>
+      <c r="H10" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="124"/>
       <c r="J10" s="33"/>
-      <c r="L10" s="165">
+      <c r="L10" s="156">
         <v>37954</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="166">
+      <c r="N10" s="157">
         <v>0.28611111111111115</v>
       </c>
-      <c r="O10" s="166">
+      <c r="O10" s="157">
         <v>0.3</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R10" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R10" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="133"/>
-      <c r="V10" s="165">
+      <c r="S10" s="124"/>
+      <c r="V10" s="156">
         <v>37956</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X10" s="166">
+      <c r="X10" s="157">
         <v>0.328472222222222</v>
       </c>
-      <c r="Y10" s="166">
+      <c r="Y10" s="157">
         <v>0.34166666666666701</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB10" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB10" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC10" s="133"/>
-      <c r="AF10" s="165">
+      <c r="AC10" s="124"/>
+      <c r="AF10" s="156">
         <v>37958</v>
       </c>
       <c r="AG10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH10" s="166">
+      <c r="AH10" s="157">
         <v>0.37013888888888902</v>
       </c>
-      <c r="AI10" s="166">
+      <c r="AI10" s="157">
         <v>0.38333333333333303</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL10" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL10" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM10" s="133"/>
+      <c r="AM10" s="124"/>
     </row>
     <row r="11" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B11" s="165">
+      <c r="B11" s="156">
         <v>37955</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="166">
+      <c r="D11" s="157">
         <v>0.30347222222222198</v>
       </c>
-      <c r="E11" s="166">
+      <c r="E11" s="157">
         <v>0.31736111111111098</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="133"/>
+        <v>146</v>
+      </c>
+      <c r="H11" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="124"/>
       <c r="J11" s="33"/>
-      <c r="L11" s="165">
+      <c r="L11" s="156">
         <v>37955</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="166">
+      <c r="N11" s="157">
         <v>0.30347222222222198</v>
       </c>
-      <c r="O11" s="166">
+      <c r="O11" s="157">
         <v>0.31736111111111098</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R11" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R11" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="133"/>
-      <c r="V11" s="165">
+      <c r="S11" s="124"/>
+      <c r="V11" s="156">
         <v>37957</v>
       </c>
       <c r="W11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X11" s="166">
+      <c r="X11" s="157">
         <v>0.34513888888888899</v>
       </c>
-      <c r="Y11" s="166">
+      <c r="Y11" s="157">
         <v>0.359027777777778</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB11" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB11" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC11" s="133"/>
-      <c r="AF11" s="165">
+      <c r="AC11" s="124"/>
+      <c r="AF11" s="156">
         <v>37959</v>
       </c>
       <c r="AG11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH11" s="168">
+      <c r="AH11" s="159">
         <v>0.38680555555555557</v>
       </c>
-      <c r="AI11" s="169">
+      <c r="AI11" s="160">
         <v>0.40069444444444502</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL11" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL11" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM11" s="133"/>
+      <c r="AM11" s="124"/>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B12" s="165">
+      <c r="B12" s="156">
         <v>37956</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="166">
+      <c r="D12" s="157">
         <v>0.328472222222222</v>
       </c>
-      <c r="E12" s="166">
+      <c r="E12" s="157">
         <v>0.34166666666666701</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="133"/>
+        <v>140</v>
+      </c>
+      <c r="H12" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="124"/>
       <c r="J12" s="33"/>
-      <c r="L12" s="165">
+      <c r="L12" s="156">
         <v>37956</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="166">
+      <c r="N12" s="157">
         <v>0.328472222222222</v>
       </c>
-      <c r="O12" s="166">
+      <c r="O12" s="157">
         <v>0.34166666666666701</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R12" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R12" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="133"/>
-      <c r="V12" s="165">
+      <c r="S12" s="124"/>
+      <c r="V12" s="156">
         <v>37958</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X12" s="166">
+      <c r="X12" s="157">
         <v>0.37013888888888902</v>
       </c>
-      <c r="Y12" s="166">
+      <c r="Y12" s="157">
         <v>0.38333333333333303</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB12" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB12" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC12" s="133"/>
-      <c r="AF12" s="165">
+      <c r="AC12" s="124"/>
+      <c r="AF12" s="156">
         <v>37960</v>
       </c>
       <c r="AG12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH12" s="168">
+      <c r="AH12" s="159">
         <v>0.41180555555555598</v>
       </c>
-      <c r="AI12" s="168">
+      <c r="AI12" s="159">
         <v>0.42499999999999999</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL12" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL12" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM12" s="133"/>
+      <c r="AM12" s="124"/>
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B13" s="165">
+      <c r="B13" s="156">
         <v>37957</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="166">
+      <c r="D13" s="157">
         <v>0.34513888888888899</v>
       </c>
-      <c r="E13" s="166">
+      <c r="E13" s="157">
         <v>0.359027777777778</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I13" s="133"/>
+        <v>146</v>
+      </c>
+      <c r="H13" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="124"/>
       <c r="J13" s="33"/>
-      <c r="L13" s="165">
+      <c r="L13" s="156">
         <v>37957</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="166">
+      <c r="N13" s="157">
         <v>0.34513888888888899</v>
       </c>
-      <c r="O13" s="166">
+      <c r="O13" s="157">
         <v>0.359027777777778</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R13" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R13" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="133"/>
-      <c r="V13" s="165">
+      <c r="S13" s="124"/>
+      <c r="V13" s="156">
         <v>37959</v>
       </c>
       <c r="W13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X13" s="168">
+      <c r="X13" s="159">
         <v>0.38680555555555557</v>
       </c>
-      <c r="Y13" s="169">
+      <c r="Y13" s="160">
         <v>0.40069444444444502</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB13" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB13" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC13" s="133"/>
-      <c r="AF13" s="165">
+      <c r="AC13" s="124"/>
+      <c r="AF13" s="156">
         <v>37961</v>
       </c>
       <c r="AG13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH13" s="166">
+      <c r="AH13" s="157">
         <v>0.4284722222222222</v>
       </c>
-      <c r="AI13" s="166">
+      <c r="AI13" s="157">
         <v>0.44236111111111098</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL13" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL13" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM13" s="171"/>
+      <c r="AM13" s="162"/>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B14" s="165">
+      <c r="B14" s="156">
         <v>37958</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="166">
+      <c r="D14" s="157">
         <v>0.37013888888888902</v>
       </c>
-      <c r="E14" s="166">
+      <c r="E14" s="157">
         <v>0.38333333333333303</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I14" s="133"/>
+        <v>140</v>
+      </c>
+      <c r="H14" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="124"/>
       <c r="J14" s="83"/>
-      <c r="L14" s="165">
+      <c r="L14" s="156">
         <v>37958</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="166">
+      <c r="N14" s="157">
         <v>0.37013888888888902</v>
       </c>
-      <c r="O14" s="166">
+      <c r="O14" s="157">
         <v>0.38333333333333303</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R14" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R14" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="133"/>
-      <c r="V14" s="165">
+      <c r="S14" s="124"/>
+      <c r="V14" s="156">
         <v>37960</v>
       </c>
       <c r="W14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X14" s="168">
+      <c r="X14" s="159">
         <v>0.41180555555555598</v>
       </c>
-      <c r="Y14" s="168">
+      <c r="Y14" s="159">
         <v>0.42499999999999999</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB14" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB14" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC14" s="133"/>
-      <c r="AF14" s="165">
+      <c r="AC14" s="124"/>
+      <c r="AF14" s="156">
         <v>37962</v>
       </c>
       <c r="AG14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH14" s="166">
+      <c r="AH14" s="157">
         <v>0.453472222222222</v>
       </c>
-      <c r="AI14" s="166">
+      <c r="AI14" s="157">
         <v>0.46666666666666662</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL14" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL14" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM14" s="133"/>
+      <c r="AM14" s="124"/>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B15" s="103"/>
@@ -8880,50 +8970,50 @@
       <c r="I15" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="L15" s="165">
+      <c r="L15" s="156">
         <v>37959</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="168">
+      <c r="N15" s="159">
         <v>0.38680555555555557</v>
       </c>
-      <c r="O15" s="169">
+      <c r="O15" s="160">
         <v>0.40069444444444502</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R15" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R15" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="171"/>
-      <c r="V15" s="165">
+      <c r="S15" s="162"/>
+      <c r="V15" s="156">
         <v>37961</v>
       </c>
       <c r="W15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X15" s="166">
+      <c r="X15" s="157">
         <v>0.4284722222222222</v>
       </c>
-      <c r="Y15" s="166">
+      <c r="Y15" s="157">
         <v>0.44236111111111098</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB15" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB15" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC15" s="171"/>
+      <c r="AC15" s="162"/>
       <c r="AF15" s="91"/>
       <c r="AG15" s="33"/>
       <c r="AH15" s="33"/>
@@ -8937,72 +9027,72 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B16" s="165">
+      <c r="B16" s="156">
         <v>37961</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="166">
+      <c r="D16" s="157">
         <v>0.42847222222222198</v>
       </c>
-      <c r="E16" s="166">
+      <c r="E16" s="157">
         <v>0.44236111111111098</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I16" s="133"/>
-      <c r="L16" s="165">
+        <v>146</v>
+      </c>
+      <c r="H16" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="124"/>
+      <c r="L16" s="156">
         <v>37960</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="168">
+      <c r="N16" s="159">
         <v>0.41180555555555598</v>
       </c>
-      <c r="O16" s="168">
+      <c r="O16" s="159">
         <v>0.42499999999999999</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R16" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R16" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="133"/>
-      <c r="V16" s="165">
+      <c r="S16" s="124"/>
+      <c r="V16" s="156">
         <v>37962</v>
       </c>
       <c r="W16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X16" s="166">
+      <c r="X16" s="157">
         <v>0.453472222222222</v>
       </c>
-      <c r="Y16" s="166">
+      <c r="Y16" s="157">
         <v>0.46666666666666662</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB16" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB16" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC16" s="133"/>
+      <c r="AC16" s="124"/>
       <c r="AF16" s="91"/>
       <c r="AG16" s="81" t="s">
         <v>58</v>
@@ -9017,28 +9107,28 @@
       <c r="AM16" s="93"/>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B17" s="165">
+      <c r="B17" s="156">
         <v>37962</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="166">
+      <c r="D17" s="157">
         <v>0.453472222222222</v>
       </c>
-      <c r="E17" s="166">
+      <c r="E17" s="157">
         <v>0.46666666666666662</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="133"/>
+        <v>140</v>
+      </c>
+      <c r="H17" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="124"/>
       <c r="L17" s="91"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -9204,9 +9294,9 @@
       <c r="AA20" s="33"/>
       <c r="AB20" s="33"/>
       <c r="AC20" s="93"/>
-      <c r="AF20" s="124"/>
+      <c r="AF20" s="115"/>
       <c r="AG20" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH20" s="105">
         <f>AH19-AM15</f>
@@ -9254,7 +9344,7 @@
       <c r="AB21" s="33"/>
       <c r="AC21" s="93"/>
       <c r="AG21" s="79"/>
-      <c r="AH21" s="129"/>
+      <c r="AH21" s="120"/>
     </row>
     <row r="22" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="98"/>
@@ -9271,7 +9361,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="93"/>
       <c r="L22" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M22" s="95"/>
       <c r="N22" s="105">
@@ -9283,9 +9373,9 @@
       <c r="Q22" s="95"/>
       <c r="R22" s="95"/>
       <c r="S22" s="96"/>
-      <c r="V22" s="124"/>
+      <c r="V22" s="115"/>
       <c r="W22" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X22" s="105">
         <f>X21-AC17</f>
@@ -9297,12 +9387,12 @@
       <c r="AB22" s="95"/>
       <c r="AC22" s="96"/>
       <c r="AG22" s="79"/>
-      <c r="AH22" s="129"/>
+      <c r="AH22" s="120"/>
     </row>
     <row r="23" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="99"/>
       <c r="C23" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" s="105">
         <f>D22-I18</f>
@@ -9316,108 +9406,108 @@
     </row>
     <row r="24" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="113" t="s">
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="180"/>
+      <c r="Q25" s="180"/>
+      <c r="R25" s="180"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="179" t="s">
         <v>181</v>
       </c>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="W25" s="114"/>
-      <c r="X25" s="114"/>
-      <c r="Y25" s="114"/>
-      <c r="Z25" s="114"/>
-      <c r="AA25" s="114"/>
-      <c r="AB25" s="114"/>
-      <c r="AC25" s="115"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="113" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="114"/>
-      <c r="AI25" s="114"/>
-      <c r="AJ25" s="114"/>
-      <c r="AK25" s="114"/>
-      <c r="AL25" s="114"/>
-      <c r="AM25" s="115"/>
+      <c r="W25" s="180"/>
+      <c r="X25" s="180"/>
+      <c r="Y25" s="180"/>
+      <c r="Z25" s="180"/>
+      <c r="AA25" s="180"/>
+      <c r="AB25" s="180"/>
+      <c r="AC25" s="181"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG25" s="180"/>
+      <c r="AH25" s="180"/>
+      <c r="AI25" s="180"/>
+      <c r="AJ25" s="180"/>
+      <c r="AK25" s="180"/>
+      <c r="AL25" s="180"/>
+      <c r="AM25" s="181"/>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B26" s="111"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="86"/>
       <c r="E26" s="86"/>
       <c r="F26" s="86"/>
       <c r="G26" s="86"/>
       <c r="H26" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="I26" s="112"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="109"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="S26" s="109"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="S26" s="112"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="111"/>
-      <c r="AG26" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH26" s="130"/>
-      <c r="AI26" s="130"/>
-      <c r="AJ26" s="130"/>
-      <c r="AK26" s="130"/>
-      <c r="AL26" s="131" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM26" s="112"/>
+      <c r="AH26" s="121"/>
+      <c r="AI26" s="121"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="121"/>
+      <c r="AL26" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM26" s="109"/>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B27" s="89" t="s">
@@ -9442,7 +9532,7 @@
         <v>50</v>
       </c>
       <c r="I27" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L27" s="89" t="s">
         <v>13</v>
@@ -9488,7 +9578,7 @@
         <v>50</v>
       </c>
       <c r="AC27" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF27" s="89" t="s">
         <v>13</v>
@@ -9512,198 +9602,198 @@
         <v>50</v>
       </c>
       <c r="AM27" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B28" s="165">
+      <c r="B28" s="156">
         <v>37959</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="168">
+      <c r="D28" s="159">
         <v>0.38680555555555557</v>
       </c>
-      <c r="E28" s="169">
+      <c r="E28" s="160">
         <v>0.40069444444444502</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28" s="133"/>
-      <c r="L28" s="165">
+        <v>146</v>
+      </c>
+      <c r="H28" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="124"/>
+      <c r="L28" s="156">
         <v>37961</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="166">
+      <c r="N28" s="157">
         <v>0.4284722222222222</v>
       </c>
-      <c r="O28" s="166">
+      <c r="O28" s="157">
         <v>0.44236111111111098</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R28" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R28" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="133"/>
-      <c r="V28" s="165">
+      <c r="S28" s="124"/>
+      <c r="V28" s="156">
         <v>37963</v>
       </c>
       <c r="W28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X28" s="170">
+      <c r="X28" s="161">
         <v>0.47013888888888899</v>
       </c>
-      <c r="Y28" s="168">
+      <c r="Y28" s="159">
         <v>0.484027777777778</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB28" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB28" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC28" s="133"/>
-      <c r="AF28" s="165">
+      <c r="AC28" s="124"/>
+      <c r="AF28" s="156">
         <v>37963</v>
       </c>
       <c r="AG28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH28" s="170">
+      <c r="AH28" s="161">
         <v>0.47013888888888899</v>
       </c>
-      <c r="AI28" s="168">
+      <c r="AI28" s="159">
         <v>0.484027777777778</v>
       </c>
       <c r="AJ28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL28" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL28" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM28" s="133"/>
+      <c r="AM28" s="124"/>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B29" s="165">
+      <c r="B29" s="156">
         <v>37960</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="168">
+      <c r="D29" s="159">
         <v>0.41180555555555598</v>
       </c>
-      <c r="E29" s="168">
+      <c r="E29" s="159">
         <v>0.42499999999999999</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="133"/>
-      <c r="L29" s="165">
+        <v>140</v>
+      </c>
+      <c r="H29" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="124"/>
+      <c r="L29" s="156">
         <v>37962</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="166">
+      <c r="N29" s="157">
         <v>0.453472222222222</v>
       </c>
-      <c r="O29" s="166">
+      <c r="O29" s="157">
         <v>0.46666666666666662</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R29" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R29" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="133"/>
-      <c r="V29" s="165">
+      <c r="S29" s="124"/>
+      <c r="V29" s="156">
         <v>37964</v>
       </c>
       <c r="W29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X29" s="170">
+      <c r="X29" s="161">
         <v>0.49513888888888902</v>
       </c>
-      <c r="Y29" s="168">
+      <c r="Y29" s="159">
         <v>0.50833333333333297</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB29" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB29" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC29" s="133"/>
-      <c r="AF29" s="165">
+      <c r="AC29" s="124"/>
+      <c r="AF29" s="156">
         <v>37964</v>
       </c>
       <c r="AG29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH29" s="170">
+      <c r="AH29" s="161">
         <v>0.49513888888888902</v>
       </c>
-      <c r="AI29" s="168">
+      <c r="AI29" s="159">
         <v>0.50833333333333297</v>
       </c>
       <c r="AJ29" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK29" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL29" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL29" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM29" s="133"/>
+      <c r="AM29" s="124"/>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B30" s="103"/>
       <c r="C30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="111">
         <v>0.4284722222222222</v>
       </c>
-      <c r="E30" s="116">
+      <c r="E30" s="110">
         <v>0.46666666666666662</v>
       </c>
       <c r="F30" s="15"/>
@@ -9712,722 +9802,722 @@
       <c r="I30" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="L30" s="165">
+      <c r="L30" s="156">
         <v>37963</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N30" s="170">
+      <c r="N30" s="161">
         <v>0.47013888888888899</v>
       </c>
-      <c r="O30" s="168">
+      <c r="O30" s="159">
         <v>0.484027777777778</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R30" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R30" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S30" s="133"/>
-      <c r="V30" s="165">
+      <c r="S30" s="124"/>
+      <c r="V30" s="156">
         <v>37965</v>
       </c>
       <c r="W30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X30" s="166">
+      <c r="X30" s="157">
         <v>0.51180555555555596</v>
       </c>
-      <c r="Y30" s="166">
+      <c r="Y30" s="157">
         <v>0.52569444444444502</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB30" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB30" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC30" s="133"/>
-      <c r="AF30" s="165">
+      <c r="AC30" s="124"/>
+      <c r="AF30" s="156">
         <v>37965</v>
       </c>
       <c r="AG30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH30" s="166">
+      <c r="AH30" s="157">
         <v>0.51180555555555596</v>
       </c>
-      <c r="AI30" s="166">
+      <c r="AI30" s="157">
         <v>0.52569444444444502</v>
       </c>
       <c r="AJ30" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK30" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL30" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL30" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM30" s="133"/>
+      <c r="AM30" s="124"/>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B31" s="165">
+      <c r="B31" s="156">
         <v>37963</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="170">
+      <c r="D31" s="161">
         <v>0.47013888888888899</v>
       </c>
-      <c r="E31" s="168">
+      <c r="E31" s="159">
         <v>0.484027777777778</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I31" s="133"/>
-      <c r="L31" s="165">
+        <v>146</v>
+      </c>
+      <c r="H31" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="124"/>
+      <c r="L31" s="156">
         <v>37964</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="170">
+      <c r="N31" s="161">
         <v>0.49513888888888902</v>
       </c>
-      <c r="O31" s="168">
+      <c r="O31" s="159">
         <v>0.50833333333333297</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R31" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R31" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S31" s="133"/>
-      <c r="V31" s="165">
+      <c r="S31" s="124"/>
+      <c r="V31" s="156">
         <v>37966</v>
       </c>
       <c r="W31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X31" s="166">
+      <c r="X31" s="157">
         <v>0.53680555555555598</v>
       </c>
-      <c r="Y31" s="166">
+      <c r="Y31" s="157">
         <v>0.54999999999999993</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB31" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB31" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC31" s="133"/>
-      <c r="AF31" s="165">
+      <c r="AC31" s="124"/>
+      <c r="AF31" s="156">
         <v>37966</v>
       </c>
       <c r="AG31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH31" s="166">
+      <c r="AH31" s="157">
         <v>0.53680555555555598</v>
       </c>
-      <c r="AI31" s="166">
+      <c r="AI31" s="157">
         <v>0.54999999999999993</v>
       </c>
       <c r="AJ31" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK31" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL31" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL31" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM31" s="133"/>
+      <c r="AM31" s="124"/>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B32" s="165">
+      <c r="B32" s="156">
         <v>37964</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="170">
+      <c r="D32" s="161">
         <v>0.49513888888888902</v>
       </c>
-      <c r="E32" s="168">
+      <c r="E32" s="159">
         <v>0.50833333333333297</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I32" s="133"/>
-      <c r="L32" s="165">
+        <v>140</v>
+      </c>
+      <c r="H32" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="124"/>
+      <c r="L32" s="156">
         <v>37965</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N32" s="166">
+      <c r="N32" s="157">
         <v>0.51180555555555596</v>
       </c>
-      <c r="O32" s="166">
+      <c r="O32" s="157">
         <v>0.52569444444444502</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R32" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R32" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S32" s="133"/>
-      <c r="V32" s="165">
+      <c r="S32" s="124"/>
+      <c r="V32" s="156">
         <v>37967</v>
       </c>
       <c r="W32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X32" s="166">
+      <c r="X32" s="157">
         <v>0.55347222222222203</v>
       </c>
-      <c r="Y32" s="166">
+      <c r="Y32" s="157">
         <v>0.56736111111111098</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB32" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB32" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC32" s="133"/>
-      <c r="AF32" s="165">
+      <c r="AC32" s="124"/>
+      <c r="AF32" s="156">
         <v>37967</v>
       </c>
       <c r="AG32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH32" s="166">
+      <c r="AH32" s="157">
         <v>0.55347222222222203</v>
       </c>
-      <c r="AI32" s="166">
+      <c r="AI32" s="157">
         <v>0.56736111111111098</v>
       </c>
       <c r="AJ32" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL32" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL32" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM32" s="133"/>
+      <c r="AM32" s="124"/>
     </row>
     <row r="33" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B33" s="165">
+      <c r="B33" s="156">
         <v>37965</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="166">
+      <c r="D33" s="157">
         <v>0.51180555555555596</v>
       </c>
-      <c r="E33" s="166">
+      <c r="E33" s="157">
         <v>0.52569444444444502</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I33" s="133"/>
-      <c r="L33" s="165">
+        <v>146</v>
+      </c>
+      <c r="H33" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="124"/>
+      <c r="L33" s="156">
         <v>37966</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N33" s="166">
+      <c r="N33" s="157">
         <v>0.53680555555555598</v>
       </c>
-      <c r="O33" s="166">
+      <c r="O33" s="157">
         <v>0.54999999999999993</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R33" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R33" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S33" s="133"/>
-      <c r="V33" s="165">
+      <c r="S33" s="124"/>
+      <c r="V33" s="156">
         <v>37968</v>
       </c>
       <c r="W33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X33" s="166">
+      <c r="X33" s="157">
         <v>0.57847222222222217</v>
       </c>
-      <c r="Y33" s="166">
+      <c r="Y33" s="157">
         <v>0.59166666666666667</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB33" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB33" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC33" s="133"/>
-      <c r="AF33" s="165">
+      <c r="AC33" s="124"/>
+      <c r="AF33" s="156">
         <v>37968</v>
       </c>
       <c r="AG33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH33" s="166">
+      <c r="AH33" s="157">
         <v>0.57847222222222217</v>
       </c>
-      <c r="AI33" s="166">
+      <c r="AI33" s="157">
         <v>0.59166666666666667</v>
       </c>
       <c r="AJ33" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL33" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL33" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM33" s="133"/>
+      <c r="AM33" s="124"/>
     </row>
     <row r="34" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B34" s="165">
+      <c r="B34" s="156">
         <v>37966</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="166">
+      <c r="D34" s="157">
         <v>0.53680555555555598</v>
       </c>
-      <c r="E34" s="166">
+      <c r="E34" s="157">
         <v>0.54999999999999993</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="133"/>
-      <c r="L34" s="165">
+        <v>140</v>
+      </c>
+      <c r="H34" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="124"/>
+      <c r="L34" s="156">
         <v>37967</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N34" s="166">
+      <c r="N34" s="157">
         <v>0.55347222222222203</v>
       </c>
-      <c r="O34" s="166">
+      <c r="O34" s="157">
         <v>0.56736111111111098</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R34" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R34" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S34" s="133"/>
-      <c r="V34" s="165">
+      <c r="S34" s="124"/>
+      <c r="V34" s="156">
         <v>37969</v>
       </c>
       <c r="W34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X34" s="166">
+      <c r="X34" s="157">
         <v>0.59513888888888888</v>
       </c>
-      <c r="Y34" s="166">
+      <c r="Y34" s="157">
         <v>0.60902777777777795</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB34" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB34" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC34" s="171"/>
-      <c r="AF34" s="165">
+      <c r="AC34" s="162"/>
+      <c r="AF34" s="156">
         <v>37969</v>
       </c>
       <c r="AG34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH34" s="166">
+      <c r="AH34" s="157">
         <v>0.59513888888888888</v>
       </c>
-      <c r="AI34" s="166">
+      <c r="AI34" s="157">
         <v>0.60902777777777795</v>
       </c>
       <c r="AJ34" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK34" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL34" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL34" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM34" s="171"/>
+      <c r="AM34" s="162"/>
     </row>
     <row r="35" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B35" s="165">
+      <c r="B35" s="156">
         <v>37967</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="166">
+      <c r="D35" s="157">
         <v>0.55347222222222203</v>
       </c>
-      <c r="E35" s="166">
+      <c r="E35" s="157">
         <v>0.56736111111111098</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" s="133"/>
-      <c r="L35" s="165">
+        <v>146</v>
+      </c>
+      <c r="H35" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="124"/>
+      <c r="L35" s="156">
         <v>37968</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N35" s="166">
+      <c r="N35" s="157">
         <v>0.57847222222222217</v>
       </c>
-      <c r="O35" s="166">
+      <c r="O35" s="157">
         <v>0.59166666666666667</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R35" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R35" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S35" s="133"/>
-      <c r="V35" s="165">
+      <c r="S35" s="124"/>
+      <c r="V35" s="156">
         <v>37970</v>
       </c>
       <c r="W35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X35" s="166">
+      <c r="X35" s="157">
         <v>0.62013888888888902</v>
       </c>
-      <c r="Y35" s="166">
+      <c r="Y35" s="157">
         <v>0.63333333333333297</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB35" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB35" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC35" s="133"/>
-      <c r="AF35" s="165">
+      <c r="AC35" s="124"/>
+      <c r="AF35" s="156">
         <v>37970</v>
       </c>
       <c r="AG35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH35" s="166">
+      <c r="AH35" s="157">
         <v>0.62013888888888902</v>
       </c>
-      <c r="AI35" s="166">
+      <c r="AI35" s="157">
         <v>0.63333333333333297</v>
       </c>
       <c r="AJ35" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL35" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL35" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM35" s="133"/>
+      <c r="AM35" s="124"/>
     </row>
     <row r="36" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B36" s="165">
+      <c r="B36" s="156">
         <v>37968</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="166">
+      <c r="D36" s="157">
         <v>0.57847222222222217</v>
       </c>
-      <c r="E36" s="166">
+      <c r="E36" s="157">
         <v>0.59166666666666667</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="I36" s="133"/>
-      <c r="L36" s="165">
+        <v>140</v>
+      </c>
+      <c r="H36" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="124"/>
+      <c r="L36" s="156">
         <v>37969</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N36" s="166">
+      <c r="N36" s="157">
         <v>0.59513888888888888</v>
       </c>
-      <c r="O36" s="166">
+      <c r="O36" s="157">
         <v>0.60902777777777795</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R36" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R36" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S36" s="171"/>
-      <c r="V36" s="165">
+      <c r="S36" s="162"/>
+      <c r="V36" s="156">
         <v>37971</v>
       </c>
       <c r="W36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X36" s="166">
+      <c r="X36" s="157">
         <v>0.63680555555555596</v>
       </c>
-      <c r="Y36" s="166">
+      <c r="Y36" s="157">
         <v>0.65069444444444502</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB36" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB36" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC36" s="133"/>
-      <c r="AF36" s="165">
+      <c r="AC36" s="124"/>
+      <c r="AF36" s="156">
         <v>37971</v>
       </c>
       <c r="AG36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH36" s="166">
+      <c r="AH36" s="157">
         <v>0.63680555555555596</v>
       </c>
-      <c r="AI36" s="166">
+      <c r="AI36" s="157">
         <v>0.65069444444444502</v>
       </c>
       <c r="AJ36" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL36" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL36" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM36" s="133"/>
+      <c r="AM36" s="124"/>
     </row>
     <row r="37" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="145" t="s">
+      <c r="C37" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="150">
+      <c r="D37" s="141">
         <v>0.59722222222222221</v>
       </c>
-      <c r="E37" s="151">
+      <c r="E37" s="142">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F37" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="H37" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="I37" s="148"/>
-      <c r="L37" s="165">
+      <c r="F37" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="I37" s="139"/>
+      <c r="L37" s="156">
         <v>37970</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N37" s="166">
+      <c r="N37" s="157">
         <v>0.62013888888888902</v>
       </c>
-      <c r="O37" s="166">
+      <c r="O37" s="157">
         <v>0.63333333333333297</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R37" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R37" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S37" s="133"/>
-      <c r="V37" s="165">
+      <c r="S37" s="124"/>
+      <c r="V37" s="156">
         <v>37972</v>
       </c>
       <c r="W37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X37" s="166">
+      <c r="X37" s="157">
         <v>0.66180555555555598</v>
       </c>
-      <c r="Y37" s="166">
+      <c r="Y37" s="157">
         <v>0.67499999999999993</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB37" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB37" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC37" s="133"/>
-      <c r="AF37" s="165">
+      <c r="AC37" s="124"/>
+      <c r="AF37" s="156">
         <v>37972</v>
       </c>
       <c r="AG37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH37" s="166">
+      <c r="AH37" s="157">
         <v>0.66180555555555598</v>
       </c>
-      <c r="AI37" s="166">
+      <c r="AI37" s="157">
         <v>0.67499999999999993</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL37" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL37" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM37" s="133"/>
+      <c r="AM37" s="124"/>
     </row>
     <row r="38" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B38" s="157"/>
-      <c r="C38" s="158" t="s">
+      <c r="B38" s="148"/>
+      <c r="C38" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="162">
+      <c r="D38" s="153">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E38" s="159">
+      <c r="E38" s="150">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F38" s="158" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="158"/>
-      <c r="H38" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" s="161"/>
+      <c r="F38" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="149"/>
+      <c r="H38" s="151" t="s">
+        <v>165</v>
+      </c>
+      <c r="I38" s="152"/>
       <c r="L38" s="91"/>
       <c r="M38" s="33"/>
       <c r="N38" s="33"/>
@@ -10463,20 +10553,20 @@
       </c>
     </row>
     <row r="39" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B39" s="165"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="168">
+      <c r="D39" s="159">
         <v>0.62152777777777779</v>
       </c>
-      <c r="E39" s="168">
+      <c r="E39" s="159">
         <v>0.6333333333333333</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="171"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="162"/>
       <c r="L39" s="91"/>
       <c r="M39" s="81" t="s">
         <v>58</v>
@@ -10515,28 +10605,28 @@
       <c r="AM39" s="93"/>
     </row>
     <row r="40" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B40" s="165">
+      <c r="B40" s="156">
         <v>37971</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="166">
+      <c r="D40" s="157">
         <v>0.63680555555555596</v>
       </c>
-      <c r="E40" s="166">
+      <c r="E40" s="157">
         <v>0.65069444444444502</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="133"/>
+      <c r="I40" s="124"/>
       <c r="L40" s="91"/>
       <c r="M40" s="81" t="s">
         <v>59</v>
@@ -10575,28 +10665,28 @@
       <c r="AM40" s="93"/>
     </row>
     <row r="41" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B41" s="165">
+      <c r="B41" s="156">
         <v>37972</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="166">
+      <c r="D41" s="157">
         <v>0.66180555555555598</v>
       </c>
-      <c r="E41" s="166">
+      <c r="E41" s="157">
         <v>0.67499999999999993</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I41" s="133"/>
+      <c r="I41" s="124"/>
       <c r="L41" s="91"/>
       <c r="M41" s="33"/>
       <c r="N41" s="104"/>
@@ -10687,9 +10777,9 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="93"/>
-      <c r="L43" s="124"/>
+      <c r="L43" s="115"/>
       <c r="M43" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N43" s="105">
         <f>N42-S38</f>
@@ -10700,9 +10790,9 @@
       <c r="Q43" s="95"/>
       <c r="R43" s="95"/>
       <c r="S43" s="96"/>
-      <c r="V43" s="124"/>
+      <c r="V43" s="115"/>
       <c r="W43" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X43" s="105">
         <f>X42-AC38</f>
@@ -10713,9 +10803,9 @@
       <c r="AA43" s="95"/>
       <c r="AB43" s="95"/>
       <c r="AC43" s="96"/>
-      <c r="AF43" s="124"/>
+      <c r="AF43" s="115"/>
       <c r="AG43" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH43" s="105">
         <f>AH42-AM38</f>
@@ -10769,7 +10859,7 @@
     <row r="47" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="99"/>
       <c r="C47" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="105">
         <f>D46-I42</f>
@@ -10783,108 +10873,108 @@
     </row>
     <row r="48" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="119" t="s">
+      <c r="B49" s="182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="183"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="183"/>
+      <c r="G49" s="183"/>
+      <c r="H49" s="183"/>
+      <c r="I49" s="184"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="182" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="119" t="s">
+      <c r="M49" s="183"/>
+      <c r="N49" s="183"/>
+      <c r="O49" s="183"/>
+      <c r="P49" s="183"/>
+      <c r="Q49" s="183"/>
+      <c r="R49" s="183"/>
+      <c r="S49" s="184"/>
+      <c r="T49" s="112"/>
+      <c r="U49" s="112"/>
+      <c r="V49" s="182" t="s">
         <v>184</v>
       </c>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="121"/>
-      <c r="T49" s="118"/>
-      <c r="U49" s="118"/>
-      <c r="V49" s="119" t="s">
-        <v>185</v>
-      </c>
-      <c r="W49" s="120"/>
-      <c r="X49" s="120"/>
-      <c r="Y49" s="120"/>
-      <c r="Z49" s="120"/>
-      <c r="AA49" s="120"/>
-      <c r="AB49" s="120"/>
-      <c r="AC49" s="121"/>
-      <c r="AD49" s="118"/>
-      <c r="AE49" s="118"/>
-      <c r="AF49" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG49" s="120"/>
-      <c r="AH49" s="120"/>
-      <c r="AI49" s="120"/>
-      <c r="AJ49" s="120"/>
-      <c r="AK49" s="120"/>
-      <c r="AL49" s="120"/>
-      <c r="AM49" s="121"/>
+      <c r="W49" s="183"/>
+      <c r="X49" s="183"/>
+      <c r="Y49" s="183"/>
+      <c r="Z49" s="183"/>
+      <c r="AA49" s="183"/>
+      <c r="AB49" s="183"/>
+      <c r="AC49" s="184"/>
+      <c r="AD49" s="112"/>
+      <c r="AE49" s="112"/>
+      <c r="AF49" s="182" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG49" s="183"/>
+      <c r="AH49" s="183"/>
+      <c r="AI49" s="183"/>
+      <c r="AJ49" s="183"/>
+      <c r="AK49" s="183"/>
+      <c r="AL49" s="183"/>
+      <c r="AM49" s="184"/>
     </row>
     <row r="50" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B50" s="122"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="86"/>
       <c r="E50" s="86"/>
       <c r="F50" s="86"/>
       <c r="G50" s="86"/>
       <c r="H50" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="I50" s="123"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" s="114"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="N50" s="116"/>
+      <c r="O50" s="116"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="S50" s="114"/>
+      <c r="T50" s="112"/>
+      <c r="U50" s="112"/>
+      <c r="V50" s="113"/>
+      <c r="W50" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="X50" s="118"/>
+      <c r="Y50" s="118"/>
+      <c r="Z50" s="118"/>
+      <c r="AA50" s="118"/>
+      <c r="AB50" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC50" s="114"/>
+      <c r="AD50" s="112"/>
+      <c r="AE50" s="112"/>
+      <c r="AF50" s="113"/>
+      <c r="AG50" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="N50" s="125"/>
-      <c r="O50" s="125"/>
-      <c r="P50" s="125"/>
-      <c r="Q50" s="125"/>
-      <c r="R50" s="126" t="s">
-        <v>171</v>
-      </c>
-      <c r="S50" s="123"/>
-      <c r="T50" s="118"/>
-      <c r="U50" s="118"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="X50" s="127"/>
-      <c r="Y50" s="127"/>
-      <c r="Z50" s="127"/>
-      <c r="AA50" s="127"/>
-      <c r="AB50" s="128" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC50" s="123"/>
-      <c r="AD50" s="118"/>
-      <c r="AE50" s="118"/>
-      <c r="AF50" s="122"/>
-      <c r="AG50" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH50" s="130"/>
-      <c r="AI50" s="130"/>
-      <c r="AJ50" s="130"/>
-      <c r="AK50" s="130"/>
-      <c r="AL50" s="131" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM50" s="123"/>
+      <c r="AH50" s="121"/>
+      <c r="AI50" s="121"/>
+      <c r="AJ50" s="121"/>
+      <c r="AK50" s="121"/>
+      <c r="AL50" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM50" s="114"/>
     </row>
     <row r="51" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B51" s="89" t="s">
@@ -10909,7 +10999,7 @@
         <v>50</v>
       </c>
       <c r="I51" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L51" s="89" t="s">
         <v>13</v>
@@ -10955,7 +11045,7 @@
         <v>50</v>
       </c>
       <c r="AC51" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF51" s="89" t="s">
         <v>13</v>
@@ -10979,188 +11069,188 @@
         <v>50</v>
       </c>
       <c r="AM51" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B52" s="165">
+      <c r="B52" s="156">
         <v>37969</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="166">
+      <c r="D52" s="157">
         <v>0.59513888888888888</v>
       </c>
-      <c r="E52" s="166">
+      <c r="E52" s="157">
         <v>0.60902777777777795</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H52" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I52" s="133"/>
-      <c r="L52" s="165">
+      <c r="I52" s="124"/>
+      <c r="L52" s="156">
         <v>37971</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N52" s="166">
+      <c r="N52" s="157">
         <v>0.63680555555555596</v>
       </c>
-      <c r="O52" s="166">
+      <c r="O52" s="157">
         <v>0.65069444444444502</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R52" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R52" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S52" s="133"/>
-      <c r="V52" s="165">
+      <c r="S52" s="124"/>
+      <c r="V52" s="156">
         <v>37973</v>
       </c>
       <c r="W52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X52" s="166">
+      <c r="X52" s="157">
         <v>0.67847222222222303</v>
       </c>
-      <c r="Y52" s="166">
+      <c r="Y52" s="157">
         <v>0.69236111111111098</v>
       </c>
       <c r="Z52" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA52" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB52" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB52" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC52" s="133"/>
-      <c r="AF52" s="165">
+      <c r="AC52" s="124"/>
+      <c r="AF52" s="156">
         <v>37973</v>
       </c>
       <c r="AG52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH52" s="166">
+      <c r="AH52" s="157">
         <v>0.67847222222222303</v>
       </c>
-      <c r="AI52" s="166">
+      <c r="AI52" s="157">
         <v>0.69236111111111098</v>
       </c>
       <c r="AJ52" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK52" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL52" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL52" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM52" s="133"/>
+      <c r="AM52" s="124"/>
     </row>
     <row r="53" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B53" s="165">
+      <c r="B53" s="156">
         <v>37970</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="166">
+      <c r="D53" s="157">
         <v>0.62013888888888902</v>
       </c>
-      <c r="E53" s="166">
+      <c r="E53" s="157">
         <v>0.63333333333333297</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="133"/>
-      <c r="L53" s="165">
+      <c r="I53" s="124"/>
+      <c r="L53" s="156">
         <v>37972</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="166">
+      <c r="N53" s="157">
         <v>0.66180555555555598</v>
       </c>
-      <c r="O53" s="166">
+      <c r="O53" s="157">
         <v>0.67499999999999993</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R53" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R53" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S53" s="133"/>
-      <c r="V53" s="165">
+      <c r="S53" s="124"/>
+      <c r="V53" s="156">
         <v>37974</v>
       </c>
       <c r="W53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X53" s="166">
+      <c r="X53" s="157">
         <v>0.70347222222222205</v>
       </c>
-      <c r="Y53" s="166">
+      <c r="Y53" s="157">
         <v>0.71666666666666601</v>
       </c>
       <c r="Z53" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA53" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB53" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB53" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC53" s="133"/>
-      <c r="AF53" s="165">
+      <c r="AC53" s="124"/>
+      <c r="AF53" s="156">
         <v>37974</v>
       </c>
       <c r="AG53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH53" s="166">
+      <c r="AH53" s="157">
         <v>0.70347222222222205</v>
       </c>
-      <c r="AI53" s="166">
+      <c r="AI53" s="157">
         <v>0.71666666666666601</v>
       </c>
       <c r="AJ53" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK53" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL53" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL53" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM53" s="133"/>
+      <c r="AM53" s="124"/>
     </row>
     <row r="54" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B54" s="103"/>
@@ -11179,890 +11269,890 @@
       <c r="I54" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="L54" s="165">
+      <c r="L54" s="156">
         <v>37973</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N54" s="166">
+      <c r="N54" s="157">
         <v>0.67847222222222303</v>
       </c>
-      <c r="O54" s="166">
+      <c r="O54" s="157">
         <v>0.69236111111111098</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R54" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R54" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S54" s="133"/>
-      <c r="V54" s="165">
+      <c r="S54" s="124"/>
+      <c r="V54" s="156">
         <v>37975</v>
       </c>
       <c r="W54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X54" s="168">
+      <c r="X54" s="159">
         <v>0.72013888888888899</v>
       </c>
-      <c r="Y54" s="168">
+      <c r="Y54" s="159">
         <v>0.73402777777777795</v>
       </c>
       <c r="Z54" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA54" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB54" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB54" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC54" s="133"/>
-      <c r="AF54" s="165">
+      <c r="AC54" s="124"/>
+      <c r="AF54" s="156">
         <v>37975</v>
       </c>
       <c r="AG54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH54" s="168">
+      <c r="AH54" s="159">
         <v>0.72013888888888899</v>
       </c>
-      <c r="AI54" s="168">
+      <c r="AI54" s="159">
         <v>0.73402777777777795</v>
       </c>
       <c r="AJ54" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK54" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL54" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL54" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM54" s="133"/>
+      <c r="AM54" s="124"/>
     </row>
     <row r="55" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B55" s="165">
+      <c r="B55" s="156">
         <v>37973</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="166">
+      <c r="D55" s="157">
         <v>0.67847222222222303</v>
       </c>
-      <c r="E55" s="166">
+      <c r="E55" s="157">
         <v>0.69236111111111098</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H55" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="H55" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I55" s="133"/>
-      <c r="L55" s="165">
+      <c r="I55" s="124"/>
+      <c r="L55" s="156">
         <v>37974</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N55" s="166">
+      <c r="N55" s="157">
         <v>0.70347222222222205</v>
       </c>
-      <c r="O55" s="166">
+      <c r="O55" s="157">
         <v>0.71666666666666601</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R55" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R55" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S55" s="133"/>
-      <c r="V55" s="165">
+      <c r="S55" s="124"/>
+      <c r="V55" s="156">
         <v>37976</v>
       </c>
       <c r="W55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X55" s="168">
+      <c r="X55" s="159">
         <v>0.74513888888888902</v>
       </c>
-      <c r="Y55" s="168">
+      <c r="Y55" s="159">
         <v>0.75833333333333297</v>
       </c>
       <c r="Z55" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA55" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB55" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB55" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC55" s="133"/>
-      <c r="AF55" s="165">
+      <c r="AC55" s="124"/>
+      <c r="AF55" s="156">
         <v>37976</v>
       </c>
       <c r="AG55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH55" s="168">
+      <c r="AH55" s="159">
         <v>0.74513888888888902</v>
       </c>
-      <c r="AI55" s="168">
+      <c r="AI55" s="159">
         <v>0.75833333333333297</v>
       </c>
       <c r="AJ55" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK55" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL55" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL55" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM55" s="133"/>
+      <c r="AM55" s="124"/>
     </row>
     <row r="56" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B56" s="165">
+      <c r="B56" s="156">
         <v>37974</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="166">
+      <c r="D56" s="157">
         <v>0.70347222222222205</v>
       </c>
-      <c r="E56" s="166">
+      <c r="E56" s="157">
         <v>0.71666666666666601</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="133"/>
-      <c r="L56" s="165">
+      <c r="I56" s="124"/>
+      <c r="L56" s="156">
         <v>37975</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N56" s="168">
+      <c r="N56" s="159">
         <v>0.72013888888888899</v>
       </c>
-      <c r="O56" s="168">
+      <c r="O56" s="159">
         <v>0.73402777777777795</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R56" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R56" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S56" s="133"/>
-      <c r="V56" s="165">
+      <c r="S56" s="124"/>
+      <c r="V56" s="156">
         <v>37977</v>
       </c>
       <c r="W56" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X56" s="168">
+      <c r="X56" s="159">
         <v>0.76180555555555596</v>
       </c>
-      <c r="Y56" s="168">
+      <c r="Y56" s="159">
         <v>0.77569444444444502</v>
       </c>
       <c r="Z56" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA56" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB56" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB56" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC56" s="133"/>
-      <c r="AF56" s="165">
+      <c r="AC56" s="124"/>
+      <c r="AF56" s="156">
         <v>37977</v>
       </c>
       <c r="AG56" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH56" s="168">
+      <c r="AH56" s="159">
         <v>0.76180555555555596</v>
       </c>
-      <c r="AI56" s="168">
+      <c r="AI56" s="159">
         <v>0.77569444444444502</v>
       </c>
       <c r="AJ56" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK56" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL56" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL56" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM56" s="133"/>
+      <c r="AM56" s="124"/>
     </row>
     <row r="57" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B57" s="165">
+      <c r="B57" s="156">
         <v>37975</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="168">
+      <c r="D57" s="159">
         <v>0.72013888888888899</v>
       </c>
-      <c r="E57" s="168">
+      <c r="E57" s="159">
         <v>0.73402777777777795</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H57" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I57" s="133"/>
-      <c r="L57" s="165">
+      <c r="I57" s="124"/>
+      <c r="L57" s="156">
         <v>37976</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N57" s="168">
+      <c r="N57" s="159">
         <v>0.74513888888888902</v>
       </c>
-      <c r="O57" s="168">
+      <c r="O57" s="159">
         <v>0.75833333333333297</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R57" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R57" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S57" s="133"/>
-      <c r="V57" s="165">
+      <c r="S57" s="124"/>
+      <c r="V57" s="156">
         <v>37978</v>
       </c>
       <c r="W57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X57" s="168">
+      <c r="X57" s="159">
         <v>0.78680555555555598</v>
       </c>
-      <c r="Y57" s="168">
+      <c r="Y57" s="159">
         <v>0.79999999999999905</v>
       </c>
       <c r="Z57" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA57" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB57" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB57" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC57" s="133"/>
-      <c r="AF57" s="165">
+      <c r="AC57" s="124"/>
+      <c r="AF57" s="156">
         <v>37978</v>
       </c>
       <c r="AG57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH57" s="168">
+      <c r="AH57" s="159">
         <v>0.78680555555555598</v>
       </c>
-      <c r="AI57" s="168">
+      <c r="AI57" s="159">
         <v>0.79999999999999905</v>
       </c>
       <c r="AJ57" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK57" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL57" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL57" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM57" s="133"/>
+      <c r="AM57" s="124"/>
     </row>
     <row r="58" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B58" s="165">
+      <c r="B58" s="156">
         <v>37976</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="168">
+      <c r="D58" s="159">
         <v>0.74513888888888902</v>
       </c>
-      <c r="E58" s="168">
+      <c r="E58" s="159">
         <v>0.75833333333333297</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H58" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I58" s="133"/>
-      <c r="L58" s="165">
+      <c r="I58" s="124"/>
+      <c r="L58" s="156">
         <v>37977</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N58" s="168">
+      <c r="N58" s="159">
         <v>0.76180555555555596</v>
       </c>
-      <c r="O58" s="168">
+      <c r="O58" s="159">
         <v>0.77569444444444502</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R58" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R58" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S58" s="133"/>
-      <c r="V58" s="165">
+      <c r="S58" s="124"/>
+      <c r="V58" s="156">
         <v>37979</v>
       </c>
       <c r="W58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X58" s="168">
+      <c r="X58" s="159">
         <v>0.80347222222222303</v>
       </c>
-      <c r="Y58" s="168">
+      <c r="Y58" s="159">
         <v>0.81736111111111098</v>
       </c>
       <c r="Z58" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA58" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB58" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB58" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC58" s="171"/>
-      <c r="AF58" s="165">
+      <c r="AC58" s="162"/>
+      <c r="AF58" s="156">
         <v>37979</v>
       </c>
       <c r="AG58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH58" s="168">
+      <c r="AH58" s="159">
         <v>0.80347222222222303</v>
       </c>
-      <c r="AI58" s="168">
+      <c r="AI58" s="159">
         <v>0.81736111111111098</v>
       </c>
       <c r="AJ58" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK58" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL58" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL58" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM58" s="171"/>
+      <c r="AM58" s="162"/>
     </row>
     <row r="59" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B59" s="165">
+      <c r="B59" s="156">
         <v>37977</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="168">
+      <c r="D59" s="159">
         <v>0.76180555555555596</v>
       </c>
-      <c r="E59" s="168">
+      <c r="E59" s="159">
         <v>0.77569444444444502</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H59" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I59" s="133"/>
-      <c r="L59" s="165">
+      <c r="I59" s="124"/>
+      <c r="L59" s="156">
         <v>37978</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N59" s="168">
+      <c r="N59" s="159">
         <v>0.78680555555555598</v>
       </c>
-      <c r="O59" s="168">
+      <c r="O59" s="159">
         <v>0.79999999999999905</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R59" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R59" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S59" s="133"/>
-      <c r="V59" s="165">
+      <c r="S59" s="124"/>
+      <c r="V59" s="156">
         <v>37980</v>
       </c>
       <c r="W59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X59" s="168">
+      <c r="X59" s="159">
         <v>0.82847222222222205</v>
       </c>
-      <c r="Y59" s="168">
+      <c r="Y59" s="159">
         <v>0.84166666666666601</v>
       </c>
       <c r="Z59" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA59" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB59" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB59" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC59" s="133"/>
-      <c r="AF59" s="165">
+      <c r="AC59" s="124"/>
+      <c r="AF59" s="156">
         <v>37980</v>
       </c>
       <c r="AG59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH59" s="168">
+      <c r="AH59" s="159">
         <v>0.82847222222222205</v>
       </c>
-      <c r="AI59" s="168">
+      <c r="AI59" s="159">
         <v>0.84166666666666601</v>
       </c>
       <c r="AJ59" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK59" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL59" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL59" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM59" s="133"/>
+      <c r="AM59" s="124"/>
     </row>
     <row r="60" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B60" s="165">
+      <c r="B60" s="156">
         <v>37978</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="168">
+      <c r="D60" s="159">
         <v>0.78680555555555598</v>
       </c>
-      <c r="E60" s="168">
+      <c r="E60" s="159">
         <v>0.79999999999999905</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H60" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I60" s="133"/>
-      <c r="L60" s="165">
+      <c r="I60" s="124"/>
+      <c r="L60" s="156">
         <v>37979</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N60" s="168">
+      <c r="N60" s="159">
         <v>0.80347222222222303</v>
       </c>
-      <c r="O60" s="168">
+      <c r="O60" s="159">
         <v>0.81736111111111098</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R60" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="R60" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S60" s="171"/>
-      <c r="V60" s="165">
+      <c r="S60" s="162"/>
+      <c r="V60" s="156">
         <v>37981</v>
       </c>
       <c r="W60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X60" s="168">
+      <c r="X60" s="159">
         <v>0.84513888888888899</v>
       </c>
-      <c r="Y60" s="168">
+      <c r="Y60" s="159">
         <v>0.85902777777777783</v>
       </c>
       <c r="Z60" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA60" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB60" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB60" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC60" s="133"/>
-      <c r="AF60" s="165">
+      <c r="AC60" s="124"/>
+      <c r="AF60" s="156">
         <v>37981</v>
       </c>
       <c r="AG60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH60" s="168">
+      <c r="AH60" s="159">
         <v>0.84513888888888899</v>
       </c>
-      <c r="AI60" s="168">
+      <c r="AI60" s="159">
         <v>0.85902777777777783</v>
       </c>
       <c r="AJ60" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK60" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL60" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL60" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM60" s="133"/>
+      <c r="AM60" s="124"/>
     </row>
     <row r="61" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B61" s="165">
+      <c r="B61" s="156">
         <v>37979</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="168">
+      <c r="D61" s="159">
         <v>0.80347222222222303</v>
       </c>
-      <c r="E61" s="168">
+      <c r="E61" s="159">
         <v>0.81736111111111098</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H61" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I61" s="133"/>
-      <c r="L61" s="165">
+      <c r="I61" s="124"/>
+      <c r="L61" s="156">
         <v>37980</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N61" s="168">
+      <c r="N61" s="159">
         <v>0.82847222222222205</v>
       </c>
-      <c r="O61" s="168">
+      <c r="O61" s="159">
         <v>0.84166666666666601</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R61" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="R61" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="S61" s="133"/>
-      <c r="V61" s="165">
+      <c r="S61" s="124"/>
+      <c r="V61" s="156">
         <v>37982</v>
       </c>
       <c r="W61" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X61" s="168">
+      <c r="X61" s="159">
         <v>0.87013888888888891</v>
       </c>
-      <c r="Y61" s="168">
+      <c r="Y61" s="159">
         <v>0.8833333333333333</v>
       </c>
       <c r="Z61" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA61" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB61" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB61" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AC61" s="133"/>
-      <c r="AF61" s="165">
+      <c r="AC61" s="124"/>
+      <c r="AF61" s="156">
         <v>37982</v>
       </c>
       <c r="AG61" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH61" s="168">
+      <c r="AH61" s="159">
         <v>0.87013888888888891</v>
       </c>
-      <c r="AI61" s="168">
+      <c r="AI61" s="159">
         <v>0.8833333333333333</v>
       </c>
       <c r="AJ61" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK61" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL61" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL61" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AM61" s="133"/>
+      <c r="AM61" s="124"/>
     </row>
     <row r="62" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B62" s="165">
+      <c r="B62" s="156">
         <v>37980</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="168">
+      <c r="D62" s="159">
         <v>0.82847222222222205</v>
       </c>
-      <c r="E62" s="168">
+      <c r="E62" s="159">
         <v>0.84166666666666601</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H62" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="I62" s="133"/>
-      <c r="L62" s="140" t="s">
+      <c r="I62" s="124"/>
+      <c r="L62" s="131" t="s">
         <v>67</v>
       </c>
       <c r="M62" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="N62" s="141">
+        <v>171</v>
+      </c>
+      <c r="N62" s="132">
         <v>0.84375</v>
       </c>
-      <c r="O62" s="141">
+      <c r="O62" s="132">
         <v>0.86458333333333337</v>
       </c>
       <c r="P62" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q62" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="R62" s="142" t="s">
+        <v>173</v>
+      </c>
+      <c r="R62" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="S62" s="143"/>
-      <c r="V62" s="140" t="s">
+      <c r="S62" s="134"/>
+      <c r="V62" s="131" t="s">
         <v>67</v>
       </c>
       <c r="W62" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="X62" s="141">
+        <v>171</v>
+      </c>
+      <c r="X62" s="132">
         <v>0.88541666666666663</v>
       </c>
-      <c r="Y62" s="141">
+      <c r="Y62" s="132">
         <v>0.90625</v>
       </c>
       <c r="Z62" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA62" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB62" s="142" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB62" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="AC62" s="143"/>
-      <c r="AF62" s="140" t="s">
+      <c r="AC62" s="134"/>
+      <c r="AF62" s="131" t="s">
         <v>67</v>
       </c>
       <c r="AG62" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH62" s="141">
+        <v>171</v>
+      </c>
+      <c r="AH62" s="132">
         <v>0.88541666666666663</v>
       </c>
-      <c r="AI62" s="141">
+      <c r="AI62" s="132">
         <v>0.90625</v>
       </c>
       <c r="AJ62" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK62" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL62" s="142" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL62" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="AM62" s="143"/>
+      <c r="AM62" s="134"/>
     </row>
     <row r="63" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B63" s="163"/>
-      <c r="C63" s="153" t="s">
+      <c r="B63" s="154"/>
+      <c r="C63" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="164">
+      <c r="D63" s="155">
         <v>0.85069444444444453</v>
       </c>
-      <c r="E63" s="164">
+      <c r="E63" s="155">
         <v>0.86111111111111116</v>
       </c>
-      <c r="F63" s="153" t="s">
-        <v>164</v>
-      </c>
-      <c r="G63" s="153"/>
-      <c r="H63" s="155" t="s">
-        <v>166</v>
-      </c>
-      <c r="I63" s="156"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="158" t="s">
+      <c r="F63" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="144"/>
+      <c r="H63" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63" s="147"/>
+      <c r="L63" s="148"/>
+      <c r="M63" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="N63" s="159">
+      <c r="N63" s="150">
         <v>0.86458333333333337</v>
       </c>
-      <c r="O63" s="159">
+      <c r="O63" s="150">
         <v>0.88541666666666663</v>
       </c>
-      <c r="P63" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q63" s="158"/>
-      <c r="R63" s="160" t="s">
+      <c r="P63" s="149" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q63" s="149"/>
+      <c r="R63" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="S63" s="161"/>
-      <c r="V63" s="157"/>
-      <c r="W63" s="158" t="s">
+      <c r="S63" s="152"/>
+      <c r="V63" s="148"/>
+      <c r="W63" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="X63" s="159">
+      <c r="X63" s="150">
         <v>0.90625</v>
       </c>
-      <c r="Y63" s="159">
+      <c r="Y63" s="150">
         <v>0.92708333333333337</v>
       </c>
-      <c r="Z63" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA63" s="158"/>
-      <c r="AB63" s="160" t="s">
+      <c r="Z63" s="149" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA63" s="149"/>
+      <c r="AB63" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="AC63" s="161"/>
-      <c r="AF63" s="157"/>
-      <c r="AG63" s="158" t="s">
+      <c r="AC63" s="152"/>
+      <c r="AF63" s="148"/>
+      <c r="AG63" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="AH63" s="159">
+      <c r="AH63" s="150">
         <v>0.90625</v>
       </c>
-      <c r="AI63" s="159">
+      <c r="AI63" s="150">
         <v>0.92708333333333337</v>
       </c>
-      <c r="AJ63" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK63" s="158"/>
-      <c r="AL63" s="160" t="s">
+      <c r="AJ63" s="149" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK63" s="149"/>
+      <c r="AL63" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="AM63" s="161"/>
+      <c r="AM63" s="152"/>
     </row>
     <row r="64" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B64" s="144" t="s">
+      <c r="B64" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="145" t="s">
+      <c r="C64" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="146">
+      <c r="D64" s="137">
         <v>0.86111111111111116</v>
       </c>
-      <c r="E64" s="146">
+      <c r="E64" s="137">
         <v>0.86805555555555547</v>
       </c>
-      <c r="F64" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="G64" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="H64" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="I64" s="148"/>
+      <c r="F64" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="H64" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="139"/>
       <c r="L64" s="91"/>
       <c r="M64" s="33"/>
       <c r="N64" s="33"/>
@@ -12098,28 +12188,28 @@
       </c>
     </row>
     <row r="65" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B65" s="140" t="s">
+      <c r="B65" s="131" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="141">
+        <v>171</v>
+      </c>
+      <c r="D65" s="132">
         <v>0.87013888888888891</v>
       </c>
-      <c r="E65" s="141">
+      <c r="E65" s="132">
         <v>0.89097222222222217</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H65" s="142" t="s">
-        <v>169</v>
-      </c>
-      <c r="I65" s="143"/>
+        <v>173</v>
+      </c>
+      <c r="H65" s="133" t="s">
+        <v>168</v>
+      </c>
+      <c r="I65" s="134"/>
       <c r="L65" s="91"/>
       <c r="M65" s="81" t="s">
         <v>58</v>
@@ -12158,24 +12248,24 @@
       <c r="AM65" s="93"/>
     </row>
     <row r="66" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B66" s="157"/>
-      <c r="C66" s="158" t="s">
+      <c r="B66" s="148"/>
+      <c r="C66" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="159">
+      <c r="D66" s="150">
         <v>0.89097222222222217</v>
       </c>
-      <c r="E66" s="159">
+      <c r="E66" s="150">
         <v>0.92222222222222217</v>
       </c>
-      <c r="F66" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="G66" s="158"/>
-      <c r="H66" s="160" t="s">
-        <v>169</v>
-      </c>
-      <c r="I66" s="161"/>
+      <c r="F66" s="149" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" s="149"/>
+      <c r="H66" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="I66" s="152"/>
       <c r="L66" s="91"/>
       <c r="M66" s="81" t="s">
         <v>59</v>
@@ -12319,9 +12409,9 @@
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
       <c r="I69" s="93"/>
-      <c r="L69" s="124"/>
+      <c r="L69" s="115"/>
       <c r="M69" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N69" s="105">
         <f>N68-S64</f>
@@ -12332,9 +12422,9 @@
       <c r="Q69" s="95"/>
       <c r="R69" s="95"/>
       <c r="S69" s="96"/>
-      <c r="V69" s="124"/>
+      <c r="V69" s="115"/>
       <c r="W69" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X69" s="105">
         <f>X68-AC64</f>
@@ -12345,9 +12435,9 @@
       <c r="AA69" s="95"/>
       <c r="AB69" s="95"/>
       <c r="AC69" s="96"/>
-      <c r="AF69" s="124"/>
+      <c r="AF69" s="115"/>
       <c r="AG69" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH69" s="105">
         <f>AH68-AM64</f>
@@ -12385,9 +12475,9 @@
       <c r="I71" s="93"/>
     </row>
     <row r="72" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="124"/>
+      <c r="B72" s="115"/>
       <c r="C72" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D72" s="105">
         <f>D71-I67</f>
@@ -12401,18 +12491,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="L25:S25"/>
+    <mergeCell ref="L49:S49"/>
     <mergeCell ref="V2:AC2"/>
     <mergeCell ref="V25:AC25"/>
     <mergeCell ref="V49:AC49"/>
     <mergeCell ref="AF2:AM2"/>
     <mergeCell ref="AF25:AM25"/>
     <mergeCell ref="AF49:AM49"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="L25:S25"/>
-    <mergeCell ref="L49:S49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12438,32 +12528,32 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12606,7 +12696,7 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
@@ -12615,7 +12705,7 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -12647,10 +12737,10 @@
         <v>59.149999999999991</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14">
         <v>4.26</v>
@@ -12658,7 +12748,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15">
         <v>2.75</v>
@@ -12666,7 +12756,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" s="10">
         <f>D7*B14</f>
@@ -12676,7 +12766,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16">
         <v>5.83</v>
@@ -12684,7 +12774,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17">
         <v>5.83</v>
@@ -12692,10 +12782,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18">
         <v>5.83</v>
@@ -12704,12 +12794,12 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="172"/>
+        <v>151</v>
+      </c>
+      <c r="C19" s="163"/>
       <c r="D19" s="78"/>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19">
         <v>5.83</v>
@@ -12717,15 +12807,15 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="9">
         <v>17454.53</v>
       </c>
-      <c r="C20" s="172"/>
+      <c r="C20" s="163"/>
       <c r="D20" s="78"/>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20">
         <v>2.75</v>
@@ -12733,12 +12823,12 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="9">
         <v>17454.53</v>
       </c>
-      <c r="C21" s="172"/>
+      <c r="C21" s="163"/>
       <c r="D21" s="78"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12747,7 +12837,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="39">
         <f>SUM(B20:B21)</f>
@@ -12762,7 +12852,7 @@
       <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="183">
+      <c r="B27" s="174">
         <f>B24+B16+B11</f>
         <v>1412288.66</v>
       </c>
@@ -12846,7 +12936,7 @@
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="182">
+      <c r="B12" s="173">
         <f>B8*B10</f>
         <v>358061.60000000003</v>
       </c>
@@ -12894,7 +12984,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>82</v>
@@ -12949,22 +13039,22 @@
         <f>F3*B8</f>
         <v>193891.11559999996</v>
       </c>
-      <c r="D8" s="181">
+      <c r="D8" s="172">
         <f>C8*B5</f>
         <v>249072.52709975993</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="165" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="173" t="s">
+      <c r="D9" s="164" t="s">
         <v>87</v>
       </c>
     </row>
@@ -13009,7 +13099,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>82</v>
@@ -13049,22 +13139,22 @@
       <c r="A6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="175">
+      <c r="B6" s="166">
         <v>0.6</v>
       </c>
-      <c r="C6" s="181">
+      <c r="C6" s="172">
         <f>B6*F3</f>
         <v>178976.41439999995</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="165" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="164" t="s">
         <v>87</v>
       </c>
     </row>
@@ -13124,10 +13214,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="177">
+      <c r="D5" s="168">
         <f>D4</f>
         <v>10000000</v>
       </c>
@@ -13148,7 +13238,7 @@
       <c r="A9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="180">
+      <c r="C9" s="171">
         <f>D5/C7</f>
         <v>666666.66666666663</v>
       </c>
